--- a/workinprogress/TransLoc_Data-dictionary_v0.xlsx
+++ b/workinprogress/TransLoc_Data-dictionary_v0.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\gitlab\transloc\notes\DMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E74B8CC4-76E8-4B57-A03E-A8D2405FB8A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F8BCC8-4A36-4281-A39F-6024413A6182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28170" windowHeight="4665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="11" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="12" r:id="rId2"/>
+    <sheet name="New population page" sheetId="11" r:id="rId1"/>
+    <sheet name="New taxon page" sheetId="12" r:id="rId2"/>
+    <sheet name="Read data - Population" sheetId="13" r:id="rId3"/>
+    <sheet name="Read data - Species" sheetId="14" r:id="rId4"/>
+    <sheet name="Feuil4" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="458">
   <si>
     <t>Web page</t>
   </si>
@@ -1119,6 +1122,321 @@
   </si>
   <si>
     <t>References for documents providing information on the relocated population</t>
+  </si>
+  <si>
+    <t>Document code</t>
+  </si>
+  <si>
+    <t>Code for any source of documentation on the translocated population</t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>Level of relevance (in terms of redundancy with other documents) of the document for the translocated population</t>
+  </si>
+  <si>
+    <t>https://transloc-dev.in2p3.fr/create_taxon.php</t>
+  </si>
+  <si>
+    <t>Taxon data</t>
+  </si>
+  <si>
+    <t>Scientific name</t>
+  </si>
+  <si>
+    <t>Scientific name of the translocated taxon (Genus species)</t>
+  </si>
+  <si>
+    <t>Kingdom</t>
+  </si>
+  <si>
+    <t>Kingdom name of the translocated taxon</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Phylum name of the translocated taxon</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Class name of the translocated taxon</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Order name of the translocated taxon</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Family name of the translocated taxon</t>
+  </si>
+  <si>
+    <t>Subspecies</t>
+  </si>
+  <si>
+    <t>GBIF code</t>
+  </si>
+  <si>
+    <t>GBIF code of the translocated taxon</t>
+  </si>
+  <si>
+    <t>Apellation</t>
+  </si>
+  <si>
+    <t>French names</t>
+  </si>
+  <si>
+    <t>French names of the translocated taxon, if any</t>
+  </si>
+  <si>
+    <t>English names</t>
+  </si>
+  <si>
+    <t>English names of the translocated taxon, if any</t>
+  </si>
+  <si>
+    <t>Spanish names</t>
+  </si>
+  <si>
+    <t>Spanish names of the translocated taxon, if any</t>
+  </si>
+  <si>
+    <t>Italian names</t>
+  </si>
+  <si>
+    <t>Italian names of the translocated taxon, if any</t>
+  </si>
+  <si>
+    <t>Portuguese names</t>
+  </si>
+  <si>
+    <t>Portuguese names of the translocated taxon, if any</t>
+  </si>
+  <si>
+    <t>German names</t>
+  </si>
+  <si>
+    <t>German names of the translocated taxon, if any</t>
+  </si>
+  <si>
+    <t>Other names</t>
+  </si>
+  <si>
+    <t>Other names of the translocated taxon, in any language (specified in brackets)</t>
+  </si>
+  <si>
+    <t>Alternative scientific names</t>
+  </si>
+  <si>
+    <t>Alternative scientific names of the translocated taxon, if one or more synonyms exist for the GBIF accepted name</t>
+  </si>
+  <si>
+    <t>IUCN status</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Specifies the year in which the taxon's conservation status was assessed</t>
+  </si>
+  <si>
+    <t>IUCN level</t>
+  </si>
+  <si>
+    <t>Specifies the scale used to assess the taxon's conservation status (global, European, national, regional)</t>
+  </si>
+  <si>
+    <t>Country or region</t>
+  </si>
+  <si>
+    <t>Specifies the state or region concerned by the assessment of the taxon's conservation status, if the assessment is national or regional</t>
+  </si>
+  <si>
+    <t>Taxon status</t>
+  </si>
+  <si>
+    <t>Specifies the conservation status of the taxon</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>List of habitat types in which the taxon can be found naturally, according to EUNIS habitat types (https://eunis.eea.europa.eu/habitats.jsp) up to the third level of the EUNIS hierarchical classification.</t>
+  </si>
+  <si>
+    <t>Species traits</t>
+  </si>
+  <si>
+    <t>Life cycle</t>
+  </si>
+  <si>
+    <t>Specifies the life cycle of the translocated taxon</t>
+  </si>
+  <si>
+    <t>Life form</t>
+  </si>
+  <si>
+    <t>Specifies the life form of the translocated taxon (for plants)</t>
+  </si>
+  <si>
+    <t>Raunkiaer</t>
+  </si>
+  <si>
+    <t>Specifies the biological type of the translocated taxon according to Raunkiaer's classification (for plants)</t>
+  </si>
+  <si>
+    <t>Vegetative multiplication</t>
+  </si>
+  <si>
+    <t>Specifies whether Specifies whether the translocated taxon often propagates vegetatively (for plants)</t>
+  </si>
+  <si>
+    <t>Auto-allogamy</t>
+  </si>
+  <si>
+    <t>Specifies whether the translocated taxon reproduces frequently by autogamy or allogamy</t>
+  </si>
+  <si>
+    <t>Pollination</t>
+  </si>
+  <si>
+    <t>Specify the known pollination modes of the translocated taxon</t>
+  </si>
+  <si>
+    <t>Seed dispersion</t>
+  </si>
+  <si>
+    <t>Specifies the known modes of seed dispersal of the translocated taxon</t>
+  </si>
+  <si>
+    <t>Mutualism</t>
+  </si>
+  <si>
+    <t>Specifies whether the translocated taxon is known to have mutualist organisms other than pollinators</t>
+  </si>
+  <si>
+    <t>https://transloc-dev.in2p3.fr/form_pop.php</t>
+  </si>
+  <si>
+    <t>Upper part</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>A counter indicating the rank of the translocated population among all those entered in the database (from the oldest included in the database to the most recently included) and the total number of populations in the database.</t>
+  </si>
+  <si>
+    <t>Population code</t>
+  </si>
+  <si>
+    <t>Subpecies</t>
+  </si>
+  <si>
+    <t>Creator name</t>
+  </si>
+  <si>
+    <t>Name of the person who created the population in the database</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>Date of creation of the population in the database</t>
+  </si>
+  <si>
+    <t>Contributors</t>
+  </si>
+  <si>
+    <t>List of contributors who have entered information about this population into the database</t>
+  </si>
+  <si>
+    <t>Contribution dates</t>
+  </si>
+  <si>
+    <t>List of contribution dates</t>
+  </si>
+  <si>
+    <t>Validators</t>
+  </si>
+  <si>
+    <t>List of administrators who validated the contributions by contributors</t>
+  </si>
+  <si>
+    <t>Validation date</t>
+  </si>
+  <si>
+    <t>List of validation dates</t>
+  </si>
+  <si>
+    <t>Latest modification</t>
+  </si>
+  <si>
+    <t>Date of validation of the latest data included in the database</t>
+  </si>
+  <si>
+    <t>Latest data search by a Transloc admin</t>
+  </si>
+  <si>
+    <t>Indicates the year of the most recent data entered in the DB for this population</t>
+  </si>
+  <si>
+    <t>List of organisations (e.g. public institutions, associations, private companies, etc.) and programmes (e.g. LIFE programmes) involved in the translocation project</t>
+  </si>
+  <si>
+    <t>Specifies whether, when setting up project, the translocated taxon benefited from a European, national or regional protection status</t>
+  </si>
+  <si>
+    <t>Specifies whether at least some of the translocated individuals were translocated because they would otherwise have been destroyed by alteration of their original habitat</t>
+  </si>
+  <si>
+    <t>Year of extinction of the previous population, if known precisely (in the case of reintroduction)</t>
+  </si>
+  <si>
+    <t>Lower limit of the interval of years of extinction of the previous population</t>
+  </si>
+  <si>
+    <t>Upper limit of the interval of years of extinction of the previous population</t>
+  </si>
+  <si>
+    <t>Main justification</t>
+  </si>
+  <si>
+    <t>Distinguish, if necessary, between the main justifications ("checked" box) and the secondary justifications ("unchecked" box) for setting up the translocation project</t>
+  </si>
+  <si>
+    <t>Translocation type (Commander et al. 2018)</t>
+  </si>
+  <si>
+    <t>Translocation type (IUCN/SSC 2013)</t>
+  </si>
+  <si>
+    <t>Choice criteria for biological material</t>
+  </si>
+  <si>
+    <t>Confidentiality of RST numbers</t>
+  </si>
+  <si>
+    <t>Specifies whether the numbers of individuals released, sown or transplanted should remain confidential or not</t>
+  </si>
+  <si>
+    <t>Confidentiality of pop dynamics</t>
+  </si>
+  <si>
+    <t>Specifies whether or not quantitative data on post-translocation population dynamics should be kept confidential</t>
+  </si>
+  <si>
+    <t>List of references for documents providing information on the relocated population</t>
+  </si>
+  <si>
+    <t>https://transloc-dev.in2p3.fr/form_taxon.php</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1170,6 +1488,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1203,6 +1533,34 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1497,18 +1855,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K41:K42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" style="1" customWidth="1"/>
@@ -1728,44 +2086,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1773,50 +2120,41 @@
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>48</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1826,20 +2164,20 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>55</v>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1850,16 +2188,16 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
         <v>48</v>
@@ -1873,19 +2211,19 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
         <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1896,16 +2234,16 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
         <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
         <v>54</v>
@@ -1916,102 +2254,86 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>70</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H21" t="s">
         <v>71</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>43</v>
       </c>
       <c r="I21" t="s">
         <v>14</v>
       </c>
-      <c r="J21" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
       <c r="G22" t="s">
         <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
       <c r="G23" t="s">
         <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2019,53 +2341,53 @@
         <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
       <c r="G25" t="s">
         <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
       <c r="G26" t="s">
         <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2073,73 +2395,67 @@
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
       <c r="G28" t="s">
         <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
         <v>14</v>
       </c>
       <c r="J28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2150,16 +2466,16 @@
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
         <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s">
         <v>90</v>
@@ -2173,50 +2489,68 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>98</v>
       </c>
-      <c r="G32" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>99</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2224,39 +2558,27 @@
         <v>99</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="J35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" t="s">
-        <v>111</v>
-      </c>
       <c r="G36" t="s">
         <v>99</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2264,27 +2586,39 @@
         <v>99</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
       <c r="G38" t="s">
         <v>99</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2292,50 +2626,41 @@
         <v>99</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I41" t="s">
         <v>48</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J41" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2346,10 +2671,19 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2360,10 +2694,10 @@
         <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2374,10 +2708,10 @@
         <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2385,13 +2719,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2399,29 +2733,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" t="s">
-        <v>131</v>
-      </c>
-    </row>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
@@ -2429,11 +2750,11 @@
       <c r="B48" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>132</v>
+      <c r="C48" t="s">
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,11 +2764,11 @@
       <c r="B49" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>134</v>
+      <c r="C49" t="s">
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,11 +2778,11 @@
       <c r="B50" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>136</v>
+      <c r="C50" t="s">
+        <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2472,10 +2793,10 @@
         <v>125</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,11 +2806,11 @@
       <c r="B52" t="s">
         <v>125</v>
       </c>
-      <c r="C52" t="s">
-        <v>27</v>
+      <c r="C52" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,11 +2820,11 @@
       <c r="B53" t="s">
         <v>125</v>
       </c>
-      <c r="C53" t="s">
-        <v>31</v>
+      <c r="C53" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,11 +2834,11 @@
       <c r="B54" t="s">
         <v>125</v>
       </c>
-      <c r="C54" t="s">
-        <v>34</v>
+      <c r="C54" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,7 +2849,7 @@
         <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
         <v>28</v>
@@ -2542,7 +2863,7 @@
         <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
         <v>32</v>
@@ -2556,7 +2877,7 @@
         <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
         <v>35</v>
@@ -2570,10 +2891,10 @@
         <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,11 +2904,11 @@
       <c r="B59" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>145</v>
+      <c r="C59" t="s">
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,25 +2918,25 @@
       <c r="B60" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>147</v>
+      <c r="C60" t="s">
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>149</v>
+      <c r="C61" t="s">
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" t="s">
-        <v>152</v>
+        <v>125</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,42 +2958,31 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
+        <v>125</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" t="s">
-        <v>155</v>
+        <v>125</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -2682,7 +2992,7 @@
         <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
         <v>153</v>
@@ -2696,10 +3006,10 @@
         <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2710,10 +3020,10 @@
         <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2724,10 +3034,10 @@
         <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2738,10 +3048,10 @@
         <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,11 +3061,11 @@
       <c r="B71" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>167</v>
+      <c r="C71" t="s">
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,53 +3075,53 @@
       <c r="B72" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>169</v>
+      <c r="C72" t="s">
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>171</v>
+      <c r="C73" t="s">
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>173</v>
+      <c r="C74" t="s">
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,69 +3129,58 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>180</v>
+        <v>151</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>182</v>
+        <v>151</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>186</v>
+      <c r="C80" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D80" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2892,10 +3191,10 @@
         <v>175</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,24 +3205,24 @@
         <v>175</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>192</v>
+      <c r="C83" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D83" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2934,10 +3233,10 @@
         <v>175</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,13 +3244,13 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2959,13 +3258,13 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,27 +3272,27 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" t="s">
-        <v>204</v>
+        <v>175</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,41 +3300,30 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
-      </c>
-      <c r="C89" t="s">
-        <v>206</v>
+        <v>175</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" t="s">
-        <v>201</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D90" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3043,28 +3331,17 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" t="s">
-        <v>214</v>
-      </c>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3073,11 +3350,11 @@
       <c r="B94" t="s">
         <v>201</v>
       </c>
-      <c r="C94" t="s">
-        <v>155</v>
+      <c r="C94" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,10 +3365,10 @@
         <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3102,10 +3379,10 @@
         <v>201</v>
       </c>
       <c r="C96" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,11 +3392,11 @@
       <c r="B97" t="s">
         <v>201</v>
       </c>
-      <c r="C97" t="s">
-        <v>160</v>
+      <c r="C97" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D97" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,11 +3406,11 @@
       <c r="B98" t="s">
         <v>201</v>
       </c>
-      <c r="C98" t="s">
-        <v>162</v>
+      <c r="C98" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D98" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,11 +3420,11 @@
       <c r="B99" t="s">
         <v>201</v>
       </c>
-      <c r="C99" t="s">
-        <v>165</v>
+      <c r="C99" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,11 +3434,11 @@
       <c r="B100" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>167</v>
+      <c r="C100" t="s">
+        <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,39 +3448,39 @@
       <c r="B101" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>169</v>
+      <c r="C101" t="s">
+        <v>155</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>171</v>
+      <c r="C102" t="s">
+        <v>157</v>
       </c>
       <c r="D102" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
       <c r="B103" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>219</v>
+      <c r="C103" t="s">
+        <v>159</v>
       </c>
       <c r="D103" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3211,13 +3488,13 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="D104" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3225,13 +3502,13 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>224</v>
+        <v>201</v>
+      </c>
+      <c r="C105" t="s">
+        <v>162</v>
       </c>
       <c r="D105" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3239,13 +3516,13 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>226</v>
+        <v>201</v>
+      </c>
+      <c r="C106" t="s">
+        <v>165</v>
       </c>
       <c r="D106" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3253,13 +3530,13 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="D107" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3267,27 +3544,27 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
-      </c>
-      <c r="C109" t="s">
-        <v>232</v>
+        <v>201</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D109" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3295,28 +3572,17 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D110" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" t="s">
-        <v>221</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" t="s">
-        <v>237</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="13"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -3325,11 +3591,11 @@
       <c r="B112" t="s">
         <v>221</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>238</v>
+      <c r="C112" t="s">
+        <v>222</v>
       </c>
       <c r="D112" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3340,13 +3606,13 @@
         <v>221</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -3354,13 +3620,13 @@
         <v>221</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D114" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3368,10 +3634,10 @@
         <v>221</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D115" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,10 +3648,10 @@
         <v>221</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D116" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,14 +3661,14 @@
       <c r="B117" t="s">
         <v>221</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>248</v>
+      <c r="C117" t="s">
+        <v>232</v>
       </c>
       <c r="D117" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3410,13 +3676,13 @@
         <v>221</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3424,10 +3690,10 @@
         <v>221</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D119" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3438,10 +3704,10 @@
         <v>221</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3452,38 +3718,38 @@
         <v>221</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D121" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
       <c r="B122" t="s">
         <v>221</v>
       </c>
-      <c r="C122" t="s">
-        <v>258</v>
+      <c r="C122" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="D122" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
       <c r="B123" t="s">
         <v>221</v>
       </c>
-      <c r="C123" t="s">
-        <v>260</v>
+      <c r="C123" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="D123" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,11 +3759,11 @@
       <c r="B124" t="s">
         <v>221</v>
       </c>
-      <c r="C124" t="s">
-        <v>262</v>
+      <c r="C124" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="D124" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,11 +3773,11 @@
       <c r="B125" t="s">
         <v>221</v>
       </c>
-      <c r="C125" t="s">
-        <v>264</v>
+      <c r="C125" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="D125" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,11 +3787,11 @@
       <c r="B126" t="s">
         <v>221</v>
       </c>
-      <c r="C126" t="s">
-        <v>266</v>
+      <c r="C126" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="D126" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,11 +3801,11 @@
       <c r="B127" t="s">
         <v>221</v>
       </c>
-      <c r="C127" t="s">
-        <v>268</v>
+      <c r="C127" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="D127" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,11 +3815,11 @@
       <c r="B128" t="s">
         <v>221</v>
       </c>
-      <c r="C128" t="s">
-        <v>270</v>
+      <c r="C128" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="D128" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,11 +3829,11 @@
       <c r="B129" t="s">
         <v>221</v>
       </c>
-      <c r="C129" t="s">
-        <v>272</v>
+      <c r="C129" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="D129" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3578,10 +3844,10 @@
         <v>221</v>
       </c>
       <c r="C130" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D130" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3589,13 +3855,13 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C131" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D131" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3603,13 +3869,13 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C132" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D132" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3617,13 +3883,13 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C133" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D133" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3631,13 +3897,13 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D134" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3645,13 +3911,13 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C135" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D135" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3659,13 +3925,13 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C136" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D136" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3673,13 +3939,13 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D137" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3687,41 +3953,28 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="C138" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D138" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" t="s">
-        <v>290</v>
-      </c>
-      <c r="C139" t="s">
-        <v>293</v>
-      </c>
-      <c r="D139" t="s">
-        <v>294</v>
-      </c>
-    </row>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C140" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D140" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3729,13 +3982,13 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C141" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D141" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3743,13 +3996,13 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C142" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="D142" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3757,13 +4010,13 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C143" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D143" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,13 +4024,13 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C144" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="D144" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,13 +4038,13 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C145" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="D145" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3799,29 +4052,16 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C146" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D146" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" t="s">
-        <v>290</v>
-      </c>
-      <c r="C147" t="s">
-        <v>309</v>
-      </c>
-      <c r="D147" t="s">
-        <v>310</v>
-      </c>
-    </row>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
@@ -3830,10 +4070,10 @@
         <v>290</v>
       </c>
       <c r="C148" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D148" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3844,10 +4084,10 @@
         <v>290</v>
       </c>
       <c r="C149" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D149" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,11 +4097,11 @@
       <c r="B150" t="s">
         <v>290</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>315</v>
+      <c r="C150" t="s">
+        <v>295</v>
       </c>
       <c r="D150" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3872,10 +4112,10 @@
         <v>290</v>
       </c>
       <c r="C151" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D151" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3886,10 +4126,10 @@
         <v>290</v>
       </c>
       <c r="C152" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D152" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3900,10 +4140,10 @@
         <v>290</v>
       </c>
       <c r="C153" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="D153" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3914,10 +4154,10 @@
         <v>290</v>
       </c>
       <c r="C154" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D154" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3928,10 +4168,10 @@
         <v>290</v>
       </c>
       <c r="C155" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D155" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,10 +4182,10 @@
         <v>290</v>
       </c>
       <c r="C156" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D156" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3956,10 +4196,10 @@
         <v>290</v>
       </c>
       <c r="C157" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D157" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3970,10 +4210,10 @@
         <v>290</v>
       </c>
       <c r="C158" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D158" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3984,10 +4224,10 @@
         <v>290</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D159" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,11 +4237,11 @@
       <c r="B160" t="s">
         <v>290</v>
       </c>
-      <c r="C160" t="s">
-        <v>335</v>
+      <c r="C160" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="D160" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4012,10 +4252,10 @@
         <v>290</v>
       </c>
       <c r="C161" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="D161" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4026,10 +4266,10 @@
         <v>290</v>
       </c>
       <c r="C162" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D162" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4040,10 +4280,10 @@
         <v>290</v>
       </c>
       <c r="C163" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="D163" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4054,10 +4294,10 @@
         <v>290</v>
       </c>
       <c r="C164" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="D164" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4068,10 +4308,10 @@
         <v>290</v>
       </c>
       <c r="C165" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="D165" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4082,10 +4322,10 @@
         <v>290</v>
       </c>
       <c r="C166" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="D166" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4096,10 +4336,10 @@
         <v>290</v>
       </c>
       <c r="C167" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D167" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4107,13 +4347,188 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
+        <v>290</v>
+      </c>
+      <c r="C168" t="s">
+        <v>331</v>
+      </c>
+      <c r="D168" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>290</v>
+      </c>
+      <c r="C169" t="s">
+        <v>333</v>
+      </c>
+      <c r="D169" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>290</v>
+      </c>
+      <c r="C170" t="s">
+        <v>335</v>
+      </c>
+      <c r="D170" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>290</v>
+      </c>
+      <c r="C171" t="s">
+        <v>337</v>
+      </c>
+      <c r="D171" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>290</v>
+      </c>
+      <c r="C172" t="s">
+        <v>339</v>
+      </c>
+      <c r="D172" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>290</v>
+      </c>
+      <c r="C173" t="s">
+        <v>341</v>
+      </c>
+      <c r="D173" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>290</v>
+      </c>
+      <c r="C174" t="s">
+        <v>343</v>
+      </c>
+      <c r="D174" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>290</v>
+      </c>
+      <c r="C175" t="s">
+        <v>345</v>
+      </c>
+      <c r="D175" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>290</v>
+      </c>
+      <c r="C176" t="s">
+        <v>347</v>
+      </c>
+      <c r="D176" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>290</v>
+      </c>
+      <c r="C177" t="s">
+        <v>348</v>
+      </c>
+      <c r="D177" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
         <v>350</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C179" t="s">
         <v>351</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D179" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>350</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>350</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4124,20 +4539,3458 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C24" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" t="s">
+        <v>400</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C31" t="s">
+        <v>409</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>357</v>
+      </c>
+      <c r="B32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C32" t="s">
+        <v>411</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C34" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" t="s">
+        <v>417</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC03D87-A02F-4F88-8378-FA65CD834F4D}">
+  <dimension ref="A1:J184"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>447</v>
+      </c>
+      <c r="D42" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>449</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+    </row>
+    <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="12"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B106" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B109" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="12"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B112" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B114" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B116" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B117" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B119" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B120" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B121" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B122" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B123" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B124" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" t="s">
+        <v>452</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B125" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B126" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B127" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B128" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B129" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B130" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B131" t="s">
+        <v>221</v>
+      </c>
+      <c r="C131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B132" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" t="s">
+        <v>262</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B133" t="s">
+        <v>221</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B134" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B135" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B137" t="s">
+        <v>221</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B138" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" t="s">
+        <v>274</v>
+      </c>
+      <c r="D138" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="12"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B140" t="s">
+        <v>275</v>
+      </c>
+      <c r="C140" t="s">
+        <v>276</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B141" t="s">
+        <v>275</v>
+      </c>
+      <c r="C141" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B142" t="s">
+        <v>275</v>
+      </c>
+      <c r="C142" t="s">
+        <v>280</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B143" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" t="s">
+        <v>282</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B144" t="s">
+        <v>275</v>
+      </c>
+      <c r="C144" t="s">
+        <v>284</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B145" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" t="s">
+        <v>286</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B146" t="s">
+        <v>275</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="12"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B148" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B149" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B150" t="s">
+        <v>290</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B151" t="s">
+        <v>290</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B152" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B153" t="s">
+        <v>290</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B154" t="s">
+        <v>290</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B155" t="s">
+        <v>290</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B156" t="s">
+        <v>290</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B157" t="s">
+        <v>290</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B158" t="s">
+        <v>290</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B159" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B160" t="s">
+        <v>290</v>
+      </c>
+      <c r="C160" t="s">
+        <v>454</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B161" t="s">
+        <v>290</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B162" t="s">
+        <v>290</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B163" t="s">
+        <v>290</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B164" t="s">
+        <v>290</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B165" t="s">
+        <v>290</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B166" t="s">
+        <v>290</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B167" t="s">
+        <v>290</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B168" t="s">
+        <v>290</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B169" t="s">
+        <v>290</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B170" t="s">
+        <v>290</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B171" t="s">
+        <v>290</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B172" t="s">
+        <v>290</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B173" t="s">
+        <v>290</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B174" t="s">
+        <v>290</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B175" t="s">
+        <v>290</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B176" t="s">
+        <v>290</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B177" t="s">
+        <v>290</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B178" t="s">
+        <v>290</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="12"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B180" t="s">
+        <v>350</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B181" t="s">
+        <v>350</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B182" t="s">
+        <v>350</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="10"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589A8B8D-DC42-4B8A-A3F6-E22B8BF7B8C0}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>457</v>
+      </c>
+      <c r="B18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>457</v>
+      </c>
+      <c r="B23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C24" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>457</v>
+      </c>
+      <c r="B26" t="s">
+        <v>400</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C31" t="s">
+        <v>409</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>357</v>
+      </c>
+      <c r="B32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C32" t="s">
+        <v>411</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C34" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" t="s">
+        <v>417</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65953219-D162-4FAC-97E9-9E024B1B6C65}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/workinprogress/TransLoc_Data-dictionary_v0.xlsx
+++ b/workinprogress/TransLoc_Data-dictionary_v0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\gitlab\transloc\notes\DMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F8BCC8-4A36-4281-A39F-6024413A6182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8B065A-B52F-4AB7-BA3D-689793F6A342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28170" windowHeight="4665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28170" windowHeight="4665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New population page" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="467">
   <si>
     <t>Web page</t>
   </si>
@@ -402,19 +402,46 @@
     <t>Specifies the justifications of setting up the translocation project</t>
   </si>
   <si>
+    <t>lst_justif</t>
+  </si>
+  <si>
+    <t>justification_en</t>
+  </si>
+  <si>
+    <t>character varying(25)</t>
+  </si>
+  <si>
+    <t>lst_justif.justfication_en lists the justifications in English</t>
+  </si>
+  <si>
+    <t>justification</t>
+  </si>
+  <si>
+    <t>lst_justif.justfication_en lists the justifications in French</t>
+  </si>
+  <si>
     <t>Further details on justifications</t>
   </si>
   <si>
     <t>Details on justifications</t>
   </si>
   <si>
+    <t>justif_details</t>
+  </si>
+  <si>
     <t>Precise program objectives</t>
   </si>
   <si>
     <t>Any known objective of the translocation (at the individual, population, ecosystem or socio-ecosystem levels)</t>
   </si>
   <si>
+    <t>objectives</t>
+  </si>
+  <si>
     <t>Remarks about context</t>
+  </si>
+  <si>
+    <t>context_rem</t>
   </si>
   <si>
     <t>Type/Phase</t>
@@ -1516,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1533,11 +1560,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1548,19 +1571,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,11 +1868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1888,7 @@
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2086,9 +2099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="12"/>
-    </row>
+    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
@@ -2272,7 +2283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
@@ -2699,19 +2710,31 @@
       <c r="D43" t="s">
         <v>119</v>
       </c>
+      <c r="G43" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="G44" t="s">
         <v>120</v>
       </c>
-      <c r="D44" t="s">
-        <v>121</v>
+      <c r="H44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2722,10 +2745,19 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2736,39 +2768,57 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" t="s">
-        <v>127</v>
-      </c>
-    </row>
+        <v>130</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,13 +2826,13 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,13 +2840,13 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,13 +2854,13 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,13 +2868,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,13 +2882,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,13 +2896,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" t="s">
-        <v>27</v>
+        <v>134</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,13 +2910,13 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,13 +2924,13 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,13 +2938,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,13 +2952,13 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,13 +2966,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,13 +2980,13 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,13 +2994,13 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,58 +3008,58 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" t="s">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,13 +3067,13 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,13 +3081,13 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,13 +3095,13 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,13 +3123,13 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,13 +3137,13 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,13 +3151,13 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,13 +3165,13 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>174</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,72 +3179,72 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="13"/>
-    </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D80" t="s">
-        <v>177</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,13 +3252,13 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,13 +3266,13 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,13 +3280,13 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3244,13 +3294,13 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3258,13 +3308,13 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3272,27 +3322,27 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,75 +3350,75 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" t="s">
-        <v>198</v>
-      </c>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" t="s">
-        <v>203</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="10"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
-      </c>
-      <c r="C95" t="s">
-        <v>204</v>
+        <v>210</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,13 +3426,13 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,13 +3440,13 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
+        <v>215</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,13 +3454,13 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3418,13 +3468,13 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,13 +3482,13 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" t="s">
-        <v>23</v>
+        <v>210</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3446,13 +3496,13 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,13 +3510,13 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,13 +3524,13 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D103" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3488,13 +3538,13 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,13 +3552,13 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D105" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,13 +3566,13 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C106" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,13 +3580,13 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="C107" t="s">
+        <v>174</v>
       </c>
       <c r="D107" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,72 +3594,72 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D109" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="D110" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="13"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>221</v>
-      </c>
-      <c r="C112" t="s">
-        <v>222</v>
-      </c>
-      <c r="D112" t="s">
-        <v>223</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>210</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
+      </c>
+      <c r="C113" t="s">
+        <v>231</v>
       </c>
       <c r="D113" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3617,13 +3667,13 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3631,13 +3681,13 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3645,13 +3695,13 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3659,41 +3709,41 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
-      </c>
-      <c r="C117" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
+      </c>
+      <c r="C118" t="s">
+        <v>241</v>
       </c>
       <c r="D118" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D119" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3701,13 +3751,13 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D120" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3715,41 +3765,41 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D121" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D122" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D123" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3757,13 +3807,13 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D124" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,13 +3821,13 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,13 +3835,13 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D126" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3799,13 +3849,13 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3813,13 +3863,13 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3827,13 +3877,13 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D129" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>221</v>
-      </c>
-      <c r="C130" t="s">
-        <v>258</v>
+        <v>230</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="D130" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3855,13 +3905,13 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C131" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3869,13 +3919,13 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C132" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D132" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3883,13 +3933,13 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C133" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D133" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3897,13 +3947,13 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D134" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3911,13 +3961,13 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D135" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3925,13 +3975,13 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C136" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D136" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3939,13 +3989,13 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C137" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3953,42 +4003,42 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D138" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" t="s">
-        <v>275</v>
-      </c>
-      <c r="C140" t="s">
-        <v>276</v>
-      </c>
-      <c r="D140" t="s">
-        <v>277</v>
-      </c>
-    </row>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" t="s">
+        <v>283</v>
+      </c>
+      <c r="D139" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D141" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,13 +4046,13 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D142" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4010,13 +4060,13 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C143" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D143" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4024,13 +4074,13 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D144" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4038,13 +4088,13 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C145" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D145" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4052,42 +4102,42 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C146" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D146" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" t="s">
-        <v>290</v>
-      </c>
-      <c r="C148" t="s">
-        <v>291</v>
-      </c>
-      <c r="D148" t="s">
-        <v>292</v>
-      </c>
-    </row>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147" t="s">
+        <v>297</v>
+      </c>
+      <c r="D147" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C149" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D149" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,13 +4145,13 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D150" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4109,13 +4159,13 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C151" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D151" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4123,13 +4173,13 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D152" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4137,13 +4187,13 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C153" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D153" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,13 +4201,13 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C154" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D154" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,13 +4215,13 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C155" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D155" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,13 +4229,13 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C156" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D156" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,13 +4243,13 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C157" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D157" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,13 +4257,13 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C158" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D158" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4221,13 +4271,13 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C159" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D159" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,13 +4285,13 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>290</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>315</v>
+        <v>299</v>
+      </c>
+      <c r="C160" t="s">
+        <v>322</v>
       </c>
       <c r="D160" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,13 +4299,13 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>290</v>
-      </c>
-      <c r="C161" t="s">
-        <v>317</v>
+        <v>299</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="D161" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,13 +4313,13 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C162" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D162" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4277,13 +4327,13 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C163" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D163" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4291,13 +4341,13 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C164" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D164" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,13 +4355,13 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C165" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D165" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,13 +4369,13 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C166" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D166" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4333,13 +4383,13 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C167" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D167" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,13 +4397,13 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C168" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D168" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,13 +4411,13 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C169" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D169" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4375,13 +4425,13 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C170" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D170" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,13 +4439,13 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C171" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D171" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,13 +4453,13 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C172" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D172" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4417,13 +4467,13 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C173" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D173" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,13 +4481,13 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C174" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D174" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,13 +4495,13 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C175" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D175" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,13 +4509,13 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C176" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D176" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4473,45 +4523,42 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C177" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D177" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" t="s">
-        <v>350</v>
-      </c>
-      <c r="C179" t="s">
-        <v>351</v>
-      </c>
-      <c r="D179" t="s">
-        <v>352</v>
-      </c>
-    </row>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>299</v>
+      </c>
+      <c r="C178" t="s">
+        <v>357</v>
+      </c>
+      <c r="D178" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>350</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D180" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="C180" t="s">
+        <v>360</v>
+      </c>
+      <c r="D180" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4519,16 +4566,33 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>350</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>356</v>
+        <v>359</v>
+      </c>
+      <c r="C181" t="s">
+        <v>362</v>
+      </c>
+      <c r="D181" t="s">
+        <v>363</v>
+      </c>
+      <c r="E181" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>359</v>
+      </c>
+      <c r="C182" t="s">
+        <v>364</v>
+      </c>
+      <c r="D182" t="s">
+        <v>365</v>
+      </c>
+      <c r="E182" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4547,10 +4611,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.42578125" style="11"/>
+    <col min="6" max="6" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4563,7 +4627,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
@@ -4579,434 +4643,426 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
+      </c>
+      <c r="D2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>362</v>
+        <v>370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>364</v>
+        <v>372</v>
+      </c>
+      <c r="D4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>366</v>
+        <v>374</v>
+      </c>
+      <c r="D5" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>368</v>
+        <v>376</v>
+      </c>
+      <c r="D6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>370</v>
+        <v>378</v>
+      </c>
+      <c r="D7" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="12"/>
-    </row>
+        <v>381</v>
+      </c>
+      <c r="D10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
-        <v>375</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>376</v>
+        <v>384</v>
+      </c>
+      <c r="D12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>378</v>
+        <v>386</v>
+      </c>
+      <c r="D13" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>380</v>
+        <v>388</v>
+      </c>
+      <c r="D14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>382</v>
+        <v>390</v>
+      </c>
+      <c r="D15" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C16" t="s">
-        <v>383</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>384</v>
+        <v>392</v>
+      </c>
+      <c r="D16" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>386</v>
+        <v>394</v>
+      </c>
+      <c r="D17" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
+      </c>
+      <c r="D18" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="12"/>
-    </row>
+        <v>398</v>
+      </c>
+      <c r="D19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C21" t="s">
-        <v>392</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>393</v>
+        <v>401</v>
+      </c>
+      <c r="D21" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B22" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C22" t="s">
-        <v>394</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>395</v>
+        <v>403</v>
+      </c>
+      <c r="D22" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>396</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>397</v>
+        <v>405</v>
+      </c>
+      <c r="D23" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="12"/>
-    </row>
+        <v>407</v>
+      </c>
+      <c r="D24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="12"/>
-    </row>
+        <v>206</v>
+      </c>
+      <c r="D26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C28" t="s">
-        <v>403</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>404</v>
+        <v>412</v>
+      </c>
+      <c r="D28" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C29" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>406</v>
+        <v>414</v>
+      </c>
+      <c r="D29" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B30" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C30" t="s">
-        <v>407</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>408</v>
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B31" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
-        <v>409</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>410</v>
+        <v>418</v>
+      </c>
+      <c r="D31" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B32" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C32" t="s">
-        <v>411</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>412</v>
+        <v>420</v>
+      </c>
+      <c r="D32" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C33" t="s">
-        <v>413</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>414</v>
+        <v>422</v>
+      </c>
+      <c r="D33" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
-        <v>415</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>416</v>
+        <v>424</v>
+      </c>
+      <c r="D34" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B35" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
-        <v>417</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>418</v>
+        <v>426</v>
+      </c>
+      <c r="D35" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5016,18 +5072,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC03D87-A02F-4F88-8378-FA65CD834F4D}">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.42578125" style="11"/>
+    <col min="6" max="6" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5040,7 +5096,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
@@ -5055,42 +5111,42 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>422</v>
+      <c r="A2" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>423</v>
+      <c r="A3" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>419</v>
+      <c r="A5" t="s">
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -5098,13 +5154,13 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>419</v>
+      <c r="A6" t="s">
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -5112,27 +5168,27 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>419</v>
+      <c r="A7" t="s">
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>419</v>
+      <c r="A8" t="s">
+        <v>428</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -5140,13 +5196,13 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>419</v>
+      <c r="A9" t="s">
+        <v>428</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -5154,13 +5210,13 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>419</v>
+      <c r="A10" t="s">
+        <v>428</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -5173,8 +5229,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>419</v>
+      <c r="A11" t="s">
+        <v>428</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -5182,13 +5238,13 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>419</v>
+      <c r="A12" t="s">
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -5196,131 +5252,131 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>423</v>
+      <c r="C14" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>426</v>
+      <c r="C15" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>428</v>
+      <c r="C16" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>430</v>
+      <c r="C17" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>432</v>
+      <c r="C18" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>434</v>
+      <c r="C19" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>436</v>
+      <c r="C20" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>438</v>
+      <c r="C21" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>419</v>
+      <c r="A22" t="s">
+        <v>428</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -5328,13 +5384,13 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>419</v>
+      <c r="A23" t="s">
+        <v>428</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -5342,27 +5398,27 @@
       <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>419</v>
+      <c r="A24" t="s">
+        <v>428</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>419</v>
+      <c r="A25" t="s">
+        <v>428</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -5371,12 +5427,12 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>419</v>
+      <c r="A26" t="s">
+        <v>428</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -5389,36 +5445,36 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>146</v>
+      <c r="C27" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>148</v>
+      <c r="C28" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>419</v>
+      <c r="A29" t="s">
+        <v>428</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -5426,19 +5482,19 @@
       <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>419</v>
+      <c r="A31" t="s">
+        <v>428</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -5446,13 +5502,13 @@
       <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>441</v>
+      <c r="D31" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>419</v>
+      <c r="A32" t="s">
+        <v>428</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -5460,13 +5516,13 @@
       <c r="C32" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>419</v>
+      <c r="A33" t="s">
+        <v>428</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -5474,13 +5530,13 @@
       <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>442</v>
+      <c r="D33" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>419</v>
+      <c r="A34" t="s">
+        <v>428</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -5488,13 +5544,13 @@
       <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>443</v>
+      <c r="D34" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>419</v>
+      <c r="A35" t="s">
+        <v>428</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -5502,13 +5558,13 @@
       <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>444</v>
+      <c r="D35" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>419</v>
+      <c r="A36" t="s">
+        <v>428</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -5516,13 +5572,13 @@
       <c r="C36" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>445</v>
+      <c r="D36" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>419</v>
+      <c r="A37" t="s">
+        <v>428</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
@@ -5530,13 +5586,13 @@
       <c r="C37" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>446</v>
+      <c r="D37" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>419</v>
+      <c r="A38" t="s">
+        <v>428</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -5544,13 +5600,13 @@
       <c r="C38" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>419</v>
+      <c r="A39" t="s">
+        <v>428</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -5558,13 +5614,13 @@
       <c r="C39" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>419</v>
+      <c r="A40" t="s">
+        <v>428</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -5572,13 +5628,13 @@
       <c r="C40" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>419</v>
+      <c r="A41" t="s">
+        <v>428</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -5586,176 +5642,176 @@
       <c r="C41" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>419</v>
+      <c r="A42" t="s">
+        <v>428</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="D42" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>419</v>
+      <c r="A43" t="s">
+        <v>428</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>121</v>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>419</v>
+      <c r="A44" t="s">
+        <v>428</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>419</v>
+      <c r="A45" t="s">
+        <v>428</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>419</v>
+      <c r="A47" t="s">
+        <v>428</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>449</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>127</v>
+        <v>458</v>
+      </c>
+      <c r="D47" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>125</v>
+      <c r="A48" t="s">
+        <v>428</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>450</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>129</v>
+        <v>459</v>
+      </c>
+      <c r="D48" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>419</v>
+      <c r="A49" t="s">
+        <v>428</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>131</v>
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>419</v>
+      <c r="A50" t="s">
+        <v>428</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>419</v>
+      <c r="A51" t="s">
+        <v>428</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>135</v>
+      <c r="C51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>419</v>
+      <c r="A52" t="s">
+        <v>428</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>419</v>
+      <c r="A53" t="s">
+        <v>428</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>419</v>
+      <c r="A54" t="s">
+        <v>428</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5765,1738 +5821,1732 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>419</v>
+      <c r="A55" t="s">
+        <v>428</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>419</v>
+      <c r="A56" t="s">
+        <v>428</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
-        <v>419</v>
+      <c r="A57" t="s">
+        <v>428</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>419</v>
+      <c r="A58" t="s">
+        <v>428</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>419</v>
+      <c r="A59" t="s">
+        <v>428</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>419</v>
+      <c r="A60" t="s">
+        <v>428</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>144</v>
+        <v>152</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>419</v>
+      <c r="A61" t="s">
+        <v>428</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>419</v>
+      <c r="A62" t="s">
+        <v>428</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
-        <v>419</v>
+      <c r="A63" t="s">
+        <v>428</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>149</v>
+        <v>134</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
-        <v>419</v>
+      <c r="A65" t="s">
+        <v>428</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="D65" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>419</v>
+      <c r="A66" t="s">
+        <v>428</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>154</v>
+      <c r="D66" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
-        <v>419</v>
+      <c r="A67" t="s">
+        <v>428</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="D67" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
-        <v>419</v>
+      <c r="A68" t="s">
+        <v>428</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>158</v>
+        <v>166</v>
+      </c>
+      <c r="D68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
-        <v>419</v>
+      <c r="A69" t="s">
+        <v>428</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>153</v>
+        <v>168</v>
+      </c>
+      <c r="D69" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
-        <v>419</v>
+      <c r="A70" t="s">
+        <v>428</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>428</v>
+      </c>
+      <c r="B71" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B71" t="s">
-        <v>151</v>
-      </c>
       <c r="C71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>163</v>
+        <v>171</v>
+      </c>
+      <c r="D71" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
-        <v>419</v>
+      <c r="A72" t="s">
+        <v>428</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
-        <v>419</v>
+      <c r="A73" t="s">
+        <v>428</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>166</v>
+        <v>174</v>
+      </c>
+      <c r="D73" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>419</v>
+      <c r="A74" t="s">
+        <v>428</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
-        <v>419</v>
+      <c r="A75" t="s">
+        <v>428</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>419</v>
+      <c r="A76" t="s">
+        <v>428</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>172</v>
+        <v>160</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
-        <v>419</v>
+      <c r="A77" t="s">
+        <v>428</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>173</v>
+        <v>160</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>419</v>
+      <c r="A79" t="s">
+        <v>428</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>419</v>
+      <c r="A80" t="s">
+        <v>428</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
-        <v>419</v>
+      <c r="A81" t="s">
+        <v>428</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
-        <v>419</v>
+      <c r="A82" t="s">
+        <v>428</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>183</v>
+        <v>191</v>
+      </c>
+      <c r="D82" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>419</v>
+      <c r="A83" t="s">
+        <v>428</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>428</v>
+      </c>
+      <c r="B84" t="s">
         <v>184</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B84" t="s">
-        <v>175</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
+      </c>
+      <c r="D84" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>419</v>
+      <c r="A85" t="s">
+        <v>428</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>189</v>
+        <v>197</v>
+      </c>
+      <c r="D85" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
-        <v>419</v>
+      <c r="A86" t="s">
+        <v>428</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>191</v>
+        <v>199</v>
+      </c>
+      <c r="D86" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>419</v>
+      <c r="A87" t="s">
+        <v>428</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>193</v>
+        <v>201</v>
+      </c>
+      <c r="D87" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>419</v>
+      <c r="A88" t="s">
+        <v>428</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D88" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>419</v>
+      <c r="A90" t="s">
+        <v>428</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>198</v>
+        <v>206</v>
+      </c>
+      <c r="D90" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
-        <v>419</v>
+      <c r="A91" t="s">
+        <v>428</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
+      </c>
+      <c r="D91" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>419</v>
+      <c r="A93" t="s">
+        <v>428</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>203</v>
+        <v>460</v>
+      </c>
+      <c r="D93" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
-        <v>419</v>
+      <c r="A94" t="s">
+        <v>428</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>205</v>
+        <v>213</v>
+      </c>
+      <c r="D94" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>419</v>
+      <c r="A95" t="s">
+        <v>428</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>207</v>
+        <v>215</v>
+      </c>
+      <c r="D95" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
-        <v>419</v>
+      <c r="A96" t="s">
+        <v>428</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>209</v>
+        <v>217</v>
+      </c>
+      <c r="D96" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>419</v>
+      <c r="A97" t="s">
+        <v>428</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>428</v>
+      </c>
+      <c r="B98" t="s">
         <v>210</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B98" t="s">
-        <v>201</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>213</v>
+        <v>221</v>
+      </c>
+      <c r="D98" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
-        <v>419</v>
+      <c r="A99" t="s">
+        <v>428</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>214</v>
+      <c r="D99" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
-        <v>419</v>
+      <c r="A100" t="s">
+        <v>428</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>215</v>
+        <v>164</v>
+      </c>
+      <c r="D100" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
-        <v>419</v>
+      <c r="A101" t="s">
+        <v>428</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>216</v>
+        <v>166</v>
+      </c>
+      <c r="D101" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
-        <v>419</v>
+      <c r="A102" t="s">
+        <v>428</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>217</v>
+        <v>168</v>
+      </c>
+      <c r="D102" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
-        <v>419</v>
+      <c r="A103" t="s">
+        <v>428</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="D103" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
-        <v>419</v>
+      <c r="A104" t="s">
+        <v>428</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>163</v>
+        <v>171</v>
+      </c>
+      <c r="D104" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
-        <v>419</v>
+      <c r="A105" t="s">
+        <v>428</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>166</v>
+        <v>174</v>
+      </c>
+      <c r="D105" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
-        <v>419</v>
+      <c r="A106" t="s">
+        <v>428</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>168</v>
+        <v>210</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
-        <v>419</v>
+      <c r="A107" t="s">
+        <v>428</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>170</v>
+        <v>210</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
-        <v>419</v>
+      <c r="A108" t="s">
+        <v>428</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
-        <v>419</v>
+      <c r="A109" t="s">
+        <v>428</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>219</v>
+        <v>210</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="D109" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="12"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
-        <v>419</v>
+      <c r="A111" t="s">
+        <v>428</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>223</v>
+        <v>231</v>
+      </c>
+      <c r="D111" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
-        <v>419</v>
+      <c r="A112" t="s">
+        <v>428</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>225</v>
+        <v>230</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
-        <v>419</v>
+      <c r="A113" t="s">
+        <v>428</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
-        <v>419</v>
+      <c r="A114" t="s">
+        <v>428</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D114" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
-        <v>419</v>
+      <c r="A115" t="s">
+        <v>428</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D115" s="10" t="s">
-        <v>231</v>
+      <c r="C115" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
-        <v>419</v>
+      <c r="A116" t="s">
+        <v>428</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>233</v>
+        <v>241</v>
+      </c>
+      <c r="D116" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>419</v>
+      <c r="A117" t="s">
+        <v>428</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>419</v>
+      <c r="A118" t="s">
+        <v>428</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>237</v>
+        <v>230</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
-        <v>419</v>
+      <c r="A119" t="s">
+        <v>428</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D119" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
-        <v>419</v>
+      <c r="A120" t="s">
+        <v>428</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>241</v>
+        <v>230</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
-        <v>419</v>
+      <c r="A121" t="s">
+        <v>428</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>243</v>
+        <v>230</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D121" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
-        <v>419</v>
+      <c r="A122" t="s">
+        <v>428</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D122" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
-        <v>419</v>
+      <c r="A123" t="s">
+        <v>428</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>246</v>
+        <v>230</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="D123" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
-        <v>419</v>
+      <c r="A124" t="s">
+        <v>428</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C124" t="s">
-        <v>452</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>453</v>
+        <v>461</v>
+      </c>
+      <c r="D124" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
-        <v>419</v>
+      <c r="A125" t="s">
+        <v>428</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>249</v>
+        <v>230</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D125" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>419</v>
+      <c r="A126" t="s">
+        <v>428</v>
       </c>
       <c r="B126" t="s">
-        <v>221</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>251</v>
+        <v>230</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D126" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
-        <v>419</v>
+      <c r="A127" t="s">
+        <v>428</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>253</v>
+        <v>230</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D127" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
-        <v>419</v>
+      <c r="A128" t="s">
+        <v>428</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>255</v>
+        <v>230</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D128" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
-        <v>419</v>
+      <c r="A129" t="s">
+        <v>428</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>257</v>
+        <v>230</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
-        <v>419</v>
+      <c r="A130" t="s">
+        <v>428</v>
       </c>
       <c r="B130" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C130" t="s">
-        <v>258</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>259</v>
+        <v>267</v>
+      </c>
+      <c r="D130" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
-        <v>419</v>
+      <c r="A131" t="s">
+        <v>428</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C131" t="s">
-        <v>260</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>261</v>
+        <v>269</v>
+      </c>
+      <c r="D131" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
-        <v>419</v>
+      <c r="A132" t="s">
+        <v>428</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C132" t="s">
-        <v>262</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>263</v>
+        <v>271</v>
+      </c>
+      <c r="D132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
-        <v>419</v>
+      <c r="A133" t="s">
+        <v>428</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>265</v>
+        <v>230</v>
+      </c>
+      <c r="C133" t="s">
+        <v>273</v>
+      </c>
+      <c r="D133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
-        <v>419</v>
+      <c r="A134" t="s">
+        <v>428</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>267</v>
+        <v>230</v>
+      </c>
+      <c r="C134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D134" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
-        <v>419</v>
+      <c r="A135" t="s">
+        <v>428</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>269</v>
+        <v>230</v>
+      </c>
+      <c r="C135" t="s">
+        <v>277</v>
+      </c>
+      <c r="D135" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
-        <v>419</v>
+      <c r="A136" t="s">
+        <v>428</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>271</v>
+        <v>230</v>
+      </c>
+      <c r="C136" t="s">
+        <v>279</v>
+      </c>
+      <c r="D136" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
-        <v>419</v>
+      <c r="A137" t="s">
+        <v>428</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>273</v>
+        <v>230</v>
+      </c>
+      <c r="C137" t="s">
+        <v>281</v>
+      </c>
+      <c r="D137" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
-        <v>419</v>
+      <c r="A138" t="s">
+        <v>428</v>
       </c>
       <c r="B138" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D138" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="12"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
-        <v>419</v>
+      <c r="A140" t="s">
+        <v>428</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C140" t="s">
-        <v>276</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="D140" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
-        <v>419</v>
+      <c r="A141" t="s">
+        <v>428</v>
       </c>
       <c r="B141" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>278</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>279</v>
+        <v>287</v>
+      </c>
+      <c r="D141" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
-        <v>419</v>
+      <c r="A142" t="s">
+        <v>428</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>428</v>
+      </c>
+      <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s">
+        <v>291</v>
+      </c>
+      <c r="D143" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>428</v>
+      </c>
+      <c r="B144" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" t="s">
+        <v>293</v>
+      </c>
+      <c r="D144" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>428</v>
+      </c>
+      <c r="B145" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" t="s">
+        <v>295</v>
+      </c>
+      <c r="D145" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>428</v>
+      </c>
+      <c r="B146" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" t="s">
+        <v>297</v>
+      </c>
+      <c r="D146" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>428</v>
+      </c>
+      <c r="B148" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148" t="s">
+        <v>300</v>
+      </c>
+      <c r="D148" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>428</v>
+      </c>
+      <c r="B149" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" t="s">
+        <v>302</v>
+      </c>
+      <c r="D149" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>428</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>428</v>
+      </c>
+      <c r="B151" t="s">
+        <v>299</v>
+      </c>
+      <c r="C151" t="s">
+        <v>306</v>
+      </c>
+      <c r="D151" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>428</v>
+      </c>
+      <c r="B152" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152" t="s">
+        <v>308</v>
+      </c>
+      <c r="D152" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>428</v>
+      </c>
+      <c r="B153" t="s">
+        <v>299</v>
+      </c>
+      <c r="C153" t="s">
+        <v>310</v>
+      </c>
+      <c r="D153" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>428</v>
+      </c>
+      <c r="B154" t="s">
+        <v>299</v>
+      </c>
+      <c r="C154" t="s">
+        <v>312</v>
+      </c>
+      <c r="D154" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>428</v>
+      </c>
+      <c r="B155" t="s">
+        <v>299</v>
+      </c>
+      <c r="C155" t="s">
+        <v>314</v>
+      </c>
+      <c r="D155" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>428</v>
+      </c>
+      <c r="B156" t="s">
+        <v>299</v>
+      </c>
+      <c r="C156" t="s">
+        <v>316</v>
+      </c>
+      <c r="D156" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>428</v>
+      </c>
+      <c r="B157" t="s">
+        <v>299</v>
+      </c>
+      <c r="C157" t="s">
+        <v>318</v>
+      </c>
+      <c r="D157" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>428</v>
+      </c>
+      <c r="B158" t="s">
+        <v>299</v>
+      </c>
+      <c r="C158" t="s">
+        <v>320</v>
+      </c>
+      <c r="D158" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>428</v>
+      </c>
+      <c r="B159" t="s">
+        <v>299</v>
+      </c>
+      <c r="C159" t="s">
+        <v>322</v>
+      </c>
+      <c r="D159" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>428</v>
+      </c>
+      <c r="B160" t="s">
+        <v>299</v>
+      </c>
+      <c r="C160" t="s">
+        <v>463</v>
+      </c>
+      <c r="D160" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>428</v>
+      </c>
+      <c r="B161" t="s">
+        <v>299</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D161" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>428</v>
+      </c>
+      <c r="B162" t="s">
+        <v>299</v>
+      </c>
+      <c r="C162" t="s">
+        <v>326</v>
+      </c>
+      <c r="D162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>428</v>
+      </c>
+      <c r="B163" t="s">
+        <v>299</v>
+      </c>
+      <c r="C163" t="s">
+        <v>328</v>
+      </c>
+      <c r="D163" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>428</v>
+      </c>
+      <c r="B164" t="s">
+        <v>299</v>
+      </c>
+      <c r="C164" t="s">
+        <v>330</v>
+      </c>
+      <c r="D164" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>428</v>
+      </c>
+      <c r="B165" t="s">
+        <v>299</v>
+      </c>
+      <c r="C165" t="s">
+        <v>332</v>
+      </c>
+      <c r="D165" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>428</v>
+      </c>
+      <c r="B166" t="s">
+        <v>299</v>
+      </c>
+      <c r="C166" t="s">
+        <v>334</v>
+      </c>
+      <c r="D166" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>428</v>
+      </c>
+      <c r="B167" t="s">
+        <v>299</v>
+      </c>
+      <c r="C167" t="s">
+        <v>336</v>
+      </c>
+      <c r="D167" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>428</v>
+      </c>
+      <c r="B168" t="s">
+        <v>299</v>
+      </c>
+      <c r="C168" t="s">
+        <v>338</v>
+      </c>
+      <c r="D168" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>428</v>
+      </c>
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+      <c r="C169" t="s">
+        <v>340</v>
+      </c>
+      <c r="D169" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>428</v>
+      </c>
+      <c r="B170" t="s">
+        <v>299</v>
+      </c>
+      <c r="C170" t="s">
+        <v>342</v>
+      </c>
+      <c r="D170" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>428</v>
+      </c>
+      <c r="B171" t="s">
+        <v>299</v>
+      </c>
+      <c r="C171" t="s">
+        <v>344</v>
+      </c>
+      <c r="D171" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>428</v>
+      </c>
+      <c r="B172" t="s">
+        <v>299</v>
+      </c>
+      <c r="C172" t="s">
+        <v>346</v>
+      </c>
+      <c r="D172" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>428</v>
+      </c>
+      <c r="B173" t="s">
+        <v>299</v>
+      </c>
+      <c r="C173" t="s">
+        <v>348</v>
+      </c>
+      <c r="D173" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>428</v>
+      </c>
+      <c r="B174" t="s">
+        <v>299</v>
+      </c>
+      <c r="C174" t="s">
+        <v>350</v>
+      </c>
+      <c r="D174" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>428</v>
+      </c>
+      <c r="B175" t="s">
+        <v>299</v>
+      </c>
+      <c r="C175" t="s">
+        <v>352</v>
+      </c>
+      <c r="D175" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>428</v>
+      </c>
+      <c r="B176" t="s">
+        <v>299</v>
+      </c>
+      <c r="C176" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>428</v>
+      </c>
+      <c r="B177" t="s">
+        <v>299</v>
+      </c>
+      <c r="C177" t="s">
+        <v>356</v>
+      </c>
+      <c r="D177" t="s">
         <v>280</v>
       </c>
-      <c r="D142" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B143" t="s">
-        <v>275</v>
-      </c>
-      <c r="C143" t="s">
-        <v>282</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B144" t="s">
-        <v>275</v>
-      </c>
-      <c r="C144" t="s">
-        <v>284</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B145" t="s">
-        <v>275</v>
-      </c>
-      <c r="C145" t="s">
-        <v>286</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B146" t="s">
-        <v>275</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="12"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B148" t="s">
-        <v>290</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B149" t="s">
-        <v>290</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B150" t="s">
-        <v>290</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B151" t="s">
-        <v>290</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B152" t="s">
-        <v>290</v>
-      </c>
-      <c r="C152" s="8" t="s">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>428</v>
+      </c>
+      <c r="B178" t="s">
         <v>299</v>
       </c>
-      <c r="D152" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B153" t="s">
-        <v>290</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B154" t="s">
-        <v>290</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B155" t="s">
-        <v>290</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B156" t="s">
-        <v>290</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B157" t="s">
-        <v>290</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B158" t="s">
-        <v>290</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B159" t="s">
-        <v>290</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B160" t="s">
-        <v>290</v>
-      </c>
-      <c r="C160" t="s">
-        <v>454</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B161" t="s">
-        <v>290</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B162" t="s">
-        <v>290</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B163" t="s">
-        <v>290</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B164" t="s">
-        <v>290</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B165" t="s">
-        <v>290</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B166" t="s">
-        <v>290</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B167" t="s">
-        <v>290</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B168" t="s">
-        <v>290</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B169" t="s">
-        <v>290</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B170" t="s">
-        <v>290</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B171" t="s">
-        <v>290</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B172" t="s">
-        <v>290</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B173" t="s">
-        <v>290</v>
-      </c>
-      <c r="C173" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B174" t="s">
-        <v>290</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B175" t="s">
-        <v>290</v>
-      </c>
-      <c r="C175" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B176" t="s">
-        <v>290</v>
-      </c>
-      <c r="C176" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B177" t="s">
-        <v>290</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B178" t="s">
-        <v>290</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>349</v>
+      <c r="C178" t="s">
+        <v>357</v>
+      </c>
+      <c r="D178" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="12"/>
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="18" t="s">
-        <v>419</v>
+      <c r="A180" t="s">
+        <v>428</v>
       </c>
       <c r="B180" t="s">
-        <v>350</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D180" s="9" t="s">
-        <v>456</v>
+        <v>359</v>
+      </c>
+      <c r="C180" t="s">
+        <v>360</v>
+      </c>
+      <c r="D180" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="18" t="s">
-        <v>419</v>
+      <c r="A181" t="s">
+        <v>428</v>
       </c>
       <c r="B181" t="s">
-        <v>350</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D181" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="C181" t="s">
+        <v>362</v>
+      </c>
+      <c r="D181" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="18" t="s">
-        <v>419</v>
+      <c r="A182" t="s">
+        <v>428</v>
       </c>
       <c r="B182" t="s">
-        <v>350</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="10"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D184" s="10"/>
+        <v>359</v>
+      </c>
+      <c r="C182" t="s">
+        <v>364</v>
+      </c>
+      <c r="D182" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7505,18 +7555,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589A8B8D-DC42-4B8A-A3F6-E22B8BF7B8C0}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.42578125" style="11"/>
+    <col min="6" max="6" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7529,7 +7579,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
@@ -7545,438 +7595,427 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
+      </c>
+      <c r="D2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>362</v>
+        <v>370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>364</v>
+        <v>372</v>
+      </c>
+      <c r="D4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>366</v>
+        <v>374</v>
+      </c>
+      <c r="D5" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>368</v>
+        <v>376</v>
+      </c>
+      <c r="D6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>370</v>
+        <v>378</v>
+      </c>
+      <c r="D7" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="12"/>
-    </row>
+        <v>381</v>
+      </c>
+      <c r="D10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
-        <v>375</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>376</v>
+        <v>384</v>
+      </c>
+      <c r="D12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>378</v>
+        <v>386</v>
+      </c>
+      <c r="D13" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>380</v>
+        <v>388</v>
+      </c>
+      <c r="D14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>382</v>
+        <v>390</v>
+      </c>
+      <c r="D15" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C16" t="s">
-        <v>383</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>384</v>
+        <v>392</v>
+      </c>
+      <c r="D16" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>386</v>
+        <v>394</v>
+      </c>
+      <c r="D17" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
+      </c>
+      <c r="D18" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="12"/>
-    </row>
+        <v>398</v>
+      </c>
+      <c r="D19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C21" t="s">
-        <v>392</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>393</v>
+        <v>401</v>
+      </c>
+      <c r="D21" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B22" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C22" t="s">
-        <v>394</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>395</v>
+        <v>403</v>
+      </c>
+      <c r="D22" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>396</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>397</v>
+        <v>405</v>
+      </c>
+      <c r="D23" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="12"/>
-    </row>
+        <v>407</v>
+      </c>
+      <c r="D24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="12"/>
-    </row>
+        <v>206</v>
+      </c>
+      <c r="D26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C28" t="s">
-        <v>403</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>404</v>
+        <v>412</v>
+      </c>
+      <c r="D28" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C29" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>406</v>
+        <v>414</v>
+      </c>
+      <c r="D29" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B30" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C30" t="s">
-        <v>407</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>408</v>
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B31" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
-        <v>409</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>410</v>
+        <v>418</v>
+      </c>
+      <c r="D31" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B32" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C32" t="s">
-        <v>411</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>412</v>
+        <v>420</v>
+      </c>
+      <c r="D32" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C33" t="s">
-        <v>413</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>414</v>
+        <v>422</v>
+      </c>
+      <c r="D33" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
-        <v>415</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>416</v>
+        <v>424</v>
+      </c>
+      <c r="D34" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B35" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
-        <v>417</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="10"/>
+        <v>426</v>
+      </c>
+      <c r="D35" t="s">
+        <v>427</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7989,7 +8028,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workinprogress/TransLoc_Data-dictionary_v0.xlsx
+++ b/workinprogress/TransLoc_Data-dictionary_v0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\gitlab\transloc\notes\DMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8B065A-B52F-4AB7-BA3D-689793F6A342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF83176E-03AF-40A1-9D39-B7BEA245F606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28170" windowHeight="4665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="479">
   <si>
     <t>Web page</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Data type</t>
   </si>
   <si>
-    <t>Note</t>
+    <t>Additional notes about the database field</t>
   </si>
   <si>
     <t>https://transloc-dev.in2p3.fr/create_pop.php</t>
@@ -189,7 +189,7 @@
     <t>integer</t>
   </si>
   <si>
-    <t>lst_general.lst_order assigns a unique number to given list in the general list</t>
+    <t>lst_general.lst_order assigns a unique number to the given field listed in the general list</t>
   </si>
   <si>
     <t>Referenced</t>
@@ -453,28 +453,61 @@
     <t>Specifies the translocation type according to Commander (2018) classification</t>
   </si>
   <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "type_altern" specifies the translocation type according to the Commander (2018) classification.</t>
+  </si>
+  <si>
+    <t>lst_general.info gives a list of Commander (2018) translocation types in French.</t>
+  </si>
+  <si>
+    <t>lst_general.info gives a list of Commander (2018) translocation types in English.</t>
+  </si>
+  <si>
     <t>IUCN type</t>
   </si>
   <si>
     <t>Specifies the translocation type according to IUCN/SSC (2013) classification</t>
   </si>
   <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "type_transloc" specifies the translocation type according to IUCN/SSC (2013) classification.</t>
+  </si>
+  <si>
+    <t>lst_general.info gives a list ofIUCN/SSC 2013 translocation types in French.</t>
+  </si>
+  <si>
+    <t>lst_general.info gives a list of IUCN/SSC 2013 translocation types in English.</t>
+  </si>
+  <si>
     <t>Reinforcement type</t>
   </si>
   <si>
     <t>Specifies the place where the translocated individuals were born, in the case of reinforcement</t>
   </si>
   <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "type_renfo" specifies the place where the translocated individuals were born, in the case of reinforcement.</t>
+  </si>
+  <si>
+    <t>lst_general.info gives a list of reinforcement types in French.</t>
+  </si>
+  <si>
+    <t>lst_general.info gives a list of reinforcement types in English.</t>
+  </si>
+  <si>
     <t>Clustering</t>
   </si>
   <si>
     <t>Specifies whether the translocated population constitutes a clustering of at least two entities considered separately in documents describing this translocation</t>
   </si>
   <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether the translocated population constitutes a clustering of at least two entities considered separately in documents describing this translocation</t>
+  </si>
+  <si>
     <t>Separation</t>
   </si>
   <si>
     <t>Specifies whether the translocated population constitutes a separate entity of a larger group considered as a population in documents describing this population</t>
+  </si>
+  <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether the translocated population constitutes a separate entity of a larger group considered as a population in documents describing this population</t>
   </si>
   <si>
     <t>Multi-site</t>
@@ -1161,6 +1194,9 @@
   </si>
   <si>
     <t>Level of relevance (in terms of redundancy with other documents) of the document for the translocated population</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
   <si>
     <t>https://transloc-dev.in2p3.fr/create_taxon.php</t>
@@ -1868,11 +1904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,6 +1922,7 @@
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2807,7 +2844,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2820,106 +2857,130 @@
       <c r="D49" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
         <v>137</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
         <v>139</v>
       </c>
-      <c r="D51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
         <v>143</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2927,97 +2988,123 @@
         <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
         <v>149</v>
       </c>
-      <c r="D59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>134</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" t="s">
         <v>151</v>
       </c>
-      <c r="D61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
         <v>152</v>
       </c>
-      <c r="D62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="2"/>
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="2"/>
+      <c r="G63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3025,226 +3112,273 @@
         <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
         <v>160</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
         <v>161</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" t="s">
         <v>23</v>
       </c>
-      <c r="D68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" t="s">
-        <v>168</v>
-      </c>
-      <c r="D71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
         <v>171</v>
       </c>
-      <c r="D73" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" t="s">
-        <v>174</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C80" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="D80" t="s">
         <v>176</v>
       </c>
-      <c r="D76" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>177</v>
       </c>
       <c r="D81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,13 +3386,13 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
+      </c>
+      <c r="C82" t="s">
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3266,13 +3400,13 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
+      </c>
+      <c r="C83" t="s">
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3294,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="D85" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,13 +3442,13 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>185</v>
       </c>
       <c r="D86" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3322,13 +3456,13 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D87" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,13 +3470,13 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>199</v>
+        <v>171</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3350,13 +3484,13 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,30 +3498,30 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>203</v>
+        <v>171</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="10"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D92" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,30 +3529,41 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="10"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,13 +3571,13 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
-      </c>
-      <c r="C96" t="s">
-        <v>213</v>
+        <v>195</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C97" t="s">
-        <v>215</v>
+        <v>195</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3454,13 +3599,13 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,13 +3613,13 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="D99" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,13 +3627,13 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>221</v>
+        <v>195</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3496,41 +3641,30 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
-      </c>
-      <c r="C101" t="s">
-        <v>23</v>
+        <v>195</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>210</v>
-      </c>
-      <c r="C102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" t="s">
-        <v>224</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="10"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" t="s">
-        <v>166</v>
+        <v>216</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3538,41 +3672,30 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" t="s">
-        <v>168</v>
+        <v>216</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D104" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" t="s">
-        <v>169</v>
-      </c>
-      <c r="D105" t="s">
-        <v>170</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="10"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" t="s">
-        <v>171</v>
+        <v>221</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D106" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,13 +3703,13 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C107" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="D107" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3594,13 +3717,13 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>176</v>
+        <v>221</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
       </c>
       <c r="D108" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3608,13 +3731,13 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>178</v>
+        <v>221</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D109" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3622,13 +3745,13 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>180</v>
+        <v>221</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D110" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3636,30 +3759,41 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>210</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D111" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,13 +3801,13 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
+      </c>
+      <c r="C114" t="s">
+        <v>177</v>
       </c>
       <c r="D114" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3681,13 +3815,13 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
+      </c>
+      <c r="C115" t="s">
+        <v>179</v>
       </c>
       <c r="D115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3695,13 +3829,13 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>237</v>
+        <v>221</v>
+      </c>
+      <c r="C116" t="s">
+        <v>180</v>
       </c>
       <c r="D116" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3709,13 +3843,13 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>239</v>
+        <v>221</v>
+      </c>
+      <c r="C117" t="s">
+        <v>182</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3723,13 +3857,13 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="D118" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3737,13 +3871,13 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="D119" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3751,13 +3885,13 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="D120" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,13 +3899,13 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="D121" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,41 +3913,30 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D122" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" t="s">
-        <v>230</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D123" t="s">
-        <v>252</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>230</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
+      </c>
+      <c r="C124" t="s">
+        <v>242</v>
       </c>
       <c r="D124" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3821,13 +3944,13 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D125" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3835,13 +3958,13 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D126" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3849,13 +3972,13 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D127" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3863,13 +3986,13 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,13 +4000,13 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
+      </c>
+      <c r="C129" t="s">
+        <v>252</v>
       </c>
       <c r="D129" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3891,13 +4014,13 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D130" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,13 +4028,13 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
-      </c>
-      <c r="C131" t="s">
-        <v>267</v>
+        <v>241</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="D131" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3919,13 +4042,13 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>230</v>
-      </c>
-      <c r="C132" t="s">
-        <v>269</v>
+        <v>241</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="D132" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3933,13 +4056,13 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>230</v>
-      </c>
-      <c r="C133" t="s">
-        <v>271</v>
+        <v>241</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="D133" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3947,13 +4070,13 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>230</v>
-      </c>
-      <c r="C134" t="s">
-        <v>273</v>
+        <v>241</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="D134" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3961,13 +4084,13 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>230</v>
-      </c>
-      <c r="C135" t="s">
-        <v>275</v>
+        <v>241</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="D135" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,13 +4098,13 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
-      </c>
-      <c r="C136" t="s">
-        <v>277</v>
+        <v>241</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="D136" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3989,13 +4112,13 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>230</v>
-      </c>
-      <c r="C137" t="s">
-        <v>279</v>
+        <v>241</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D137" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4003,13 +4126,13 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
-      </c>
-      <c r="C138" t="s">
-        <v>281</v>
+        <v>241</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="D138" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4017,28 +4140,41 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>230</v>
-      </c>
-      <c r="C139" t="s">
-        <v>283</v>
+        <v>241</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D139" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>241</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" t="s">
+        <v>275</v>
+      </c>
+    </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
-      </c>
-      <c r="C141" t="s">
-        <v>285</v>
+        <v>241</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="D141" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4046,13 +4182,13 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="C142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D142" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4060,13 +4196,13 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="C143" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D143" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4074,13 +4210,13 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="C144" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D144" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4088,13 +4224,13 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" t="s">
         <v>284</v>
       </c>
-      <c r="C145" t="s">
-        <v>293</v>
-      </c>
       <c r="D145" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4102,13 +4238,13 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="C146" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D146" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4116,28 +4252,41 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="C147" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D147" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>241</v>
+      </c>
+      <c r="C148" t="s">
+        <v>290</v>
+      </c>
+      <c r="D148" t="s">
+        <v>291</v>
+      </c>
+    </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="C149" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D149" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,41 +4294,28 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="C150" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D150" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" t="s">
-        <v>299</v>
-      </c>
-      <c r="C151" t="s">
-        <v>304</v>
-      </c>
-      <c r="D151" t="s">
-        <v>305</v>
-      </c>
-    </row>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C152" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D152" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4187,13 +4323,13 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C153" t="s">
+        <v>298</v>
+      </c>
+      <c r="D153" t="s">
         <v>299</v>
-      </c>
-      <c r="C153" t="s">
-        <v>308</v>
-      </c>
-      <c r="D153" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,13 +4337,13 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C154" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D154" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,13 +4351,13 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C155" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D155" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,13 +4365,13 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C156" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D156" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4243,13 +4379,13 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C157" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D157" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4257,41 +4393,28 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C158" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D158" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" t="s">
-        <v>299</v>
-      </c>
-      <c r="C159" t="s">
-        <v>320</v>
-      </c>
-      <c r="D159" t="s">
-        <v>321</v>
-      </c>
-    </row>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C160" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D160" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,13 +4422,13 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>324</v>
+        <v>310</v>
+      </c>
+      <c r="C161" t="s">
+        <v>313</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4313,13 +4436,13 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C162" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D162" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,13 +4450,13 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C163" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D163" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4341,13 +4464,13 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C164" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D164" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,13 +4478,13 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C165" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D165" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4369,13 +4492,13 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C166" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D166" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,13 +4506,13 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C167" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D167" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4397,13 +4520,13 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C168" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D168" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4411,13 +4534,13 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C169" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D169" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,13 +4548,13 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C170" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D170" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4439,13 +4562,13 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C171" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D171" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4453,13 +4576,13 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>299</v>
-      </c>
-      <c r="C172" t="s">
-        <v>346</v>
+        <v>310</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="D172" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4467,13 +4590,13 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C173" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D173" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,13 +4604,13 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C174" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D174" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4495,13 +4618,13 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C175" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D175" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4509,13 +4632,13 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C176" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D176" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4523,13 +4646,13 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C177" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D177" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4537,28 +4660,41 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C178" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D178" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>310</v>
+      </c>
+      <c r="C179" t="s">
+        <v>349</v>
+      </c>
+      <c r="D179" t="s">
+        <v>350</v>
+      </c>
+    </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="C180" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D180" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4566,16 +4702,13 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="C181" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D181" t="s">
-        <v>363</v>
-      </c>
-      <c r="E181" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4583,16 +4716,160 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
+        <v>310</v>
+      </c>
+      <c r="C182" t="s">
+        <v>355</v>
+      </c>
+      <c r="D182" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>310</v>
+      </c>
+      <c r="C183" t="s">
+        <v>357</v>
+      </c>
+      <c r="D183" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>310</v>
+      </c>
+      <c r="C184" t="s">
         <v>359</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D184" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>310</v>
+      </c>
+      <c r="C185" t="s">
+        <v>361</v>
+      </c>
+      <c r="D185" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>310</v>
+      </c>
+      <c r="C186" t="s">
+        <v>363</v>
+      </c>
+      <c r="D186" t="s">
         <v>364</v>
       </c>
-      <c r="D182" t="s">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>310</v>
+      </c>
+      <c r="C187" t="s">
         <v>365</v>
       </c>
-      <c r="E182" t="s">
-        <v>365</v>
+      <c r="D187" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>310</v>
+      </c>
+      <c r="C188" t="s">
+        <v>367</v>
+      </c>
+      <c r="D188" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>310</v>
+      </c>
+      <c r="C189" t="s">
+        <v>368</v>
+      </c>
+      <c r="D189" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>370</v>
+      </c>
+      <c r="C191" t="s">
+        <v>371</v>
+      </c>
+      <c r="D191" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>370</v>
+      </c>
+      <c r="C192" t="s">
+        <v>373</v>
+      </c>
+      <c r="D192" t="s">
+        <v>374</v>
+      </c>
+      <c r="E192" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>370</v>
+      </c>
+      <c r="C193" t="s">
+        <v>375</v>
+      </c>
+      <c r="D193" t="s">
+        <v>376</v>
+      </c>
+      <c r="E193" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4638,99 +4915,99 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -4741,13 +5018,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -4755,314 +5032,314 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D10" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D13" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C14" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D16" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D17" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B18" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D19" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C21" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C22" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D22" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B23" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B28" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C28" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B29" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C29" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D29" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B30" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C30" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D30" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C31" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D31" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C32" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D32" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B33" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D33" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B34" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C34" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D34" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D35" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5107,35 +5384,35 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5146,7 +5423,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -5160,7 +5437,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -5174,13 +5451,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -5188,7 +5465,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -5202,7 +5479,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -5216,7 +5493,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -5230,7 +5507,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -5244,7 +5521,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -5264,119 +5541,119 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -5390,7 +5667,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -5404,13 +5681,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
@@ -5418,7 +5695,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -5427,12 +5704,12 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -5446,35 +5723,35 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -5494,7 +5771,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -5503,12 +5780,12 @@
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -5522,7 +5799,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -5531,12 +5808,12 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -5545,12 +5822,12 @@
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -5559,12 +5836,12 @@
         <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -5573,12 +5850,12 @@
         <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
@@ -5587,12 +5864,12 @@
         <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -5606,7 +5883,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -5620,7 +5897,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -5634,7 +5911,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -5648,21 +5925,21 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D42" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -5676,7 +5953,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -5690,7 +5967,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -5710,13 +5987,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B47" t="s">
         <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D47" t="s">
         <v>136</v>
@@ -5724,91 +6001,91 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s">
         <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s">
         <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s">
         <v>134</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s">
         <v>134</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B52" t="s">
         <v>134</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s">
         <v>134</v>
@@ -5822,7 +6099,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B55" t="s">
         <v>134</v>
@@ -5836,7 +6113,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s">
         <v>134</v>
@@ -5850,13 +6127,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s">
         <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
@@ -5864,13 +6141,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s">
         <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D58" t="s">
         <v>32</v>
@@ -5878,13 +6155,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s">
         <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -5892,58 +6169,58 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s">
         <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s">
         <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s">
         <v>134</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s">
         <v>134</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5954,184 +6231,184 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -6142,142 +6419,142 @@
     </row>
     <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D81" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -6288,30 +6565,30 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -6322,240 +6599,240 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D93" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D96" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D97" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C100" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B102" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C102" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D102" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B103" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C103" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C104" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D104" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C105" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D108" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B109" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D109" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -6566,394 +6843,394 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B111" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C111" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D112" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D113" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D114" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D115" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D116" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D117" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D118" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D119" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B120" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D120" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D121" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D122" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D123" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B124" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="D124" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B125" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D125" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D129" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D130" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D131" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B132" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D132" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B133" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C133" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D133" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B134" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C134" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D134" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B135" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C135" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D135" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C136" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D136" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B137" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D137" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C138" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -6964,100 +7241,100 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B140" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C140" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D140" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C141" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D141" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C142" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D142" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C143" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D143" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C144" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D144" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C145" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="D145" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D146" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,436 +7345,436 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C148" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D148" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C149" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D149" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C150" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D150" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D151" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C152" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D152" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B153" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C153" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D153" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B154" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C154" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D154" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C155" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="D155" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B156" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C156" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D156" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C157" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D157" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C158" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="D158" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B159" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C159" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D159" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C160" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D160" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C162" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="D162" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B163" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C163" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D163" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B164" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C164" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D164" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B165" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C165" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D165" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B166" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C166" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D166" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B167" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C167" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="D167" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B168" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C168" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D168" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B169" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C169" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D169" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B170" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C170" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="D170" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C171" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D171" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B172" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C172" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D172" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B173" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C173" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="D173" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B174" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C174" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="D174" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B175" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C175" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="D175" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B176" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C176" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D176" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B177" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C177" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D177" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B178" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C178" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D178" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -7508,44 +7785,44 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C180" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D180" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D181" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B182" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C182" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="D182" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -7590,99 +7867,99 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -7693,13 +7970,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -7707,314 +7984,314 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D10" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D13" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C14" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B15" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D16" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D17" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B18" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D19" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C21" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C22" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D22" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B23" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B28" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C28" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B29" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C29" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D29" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B30" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C30" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D30" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C31" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D31" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C32" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D32" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B33" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D33" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B34" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C34" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D34" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D35" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/workinprogress/TransLoc_Data-dictionary_v0.xlsx
+++ b/workinprogress/TransLoc_Data-dictionary_v0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\gitlab\transloc\notes\DMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF83176E-03AF-40A1-9D39-B7BEA245F606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E3E1BB-A022-4134-A228-55F115E40C7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28170" windowHeight="4665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New population page" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="523">
   <si>
     <t>Web page</t>
   </si>
@@ -501,6 +501,12 @@
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether the translocated population constitutes a clustering of at least two entities considered separately in documents describing this translocation</t>
   </si>
   <si>
+    <t>lst_general.info_en an option of clustering of at least two entities considered separately  or not in French.</t>
+  </si>
+  <si>
+    <t>lst_general.info_en an option of clustering of at least two entities considered separately  or not in English.</t>
+  </si>
+  <si>
     <t>Separation</t>
   </si>
   <si>
@@ -510,31 +516,100 @@
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether the translocated population constitutes a separate entity of a larger group considered as a population in documents describing this population</t>
   </si>
   <si>
+    <t>lst_general.info gives an option of whether the population constitutes a separate entity of a larger group  or not in French.</t>
+  </si>
+  <si>
+    <t>lst_general.info gives an option of whether the population constitutes a separate entity of a larger group  or not in English.</t>
+  </si>
+  <si>
     <t>Multi-site</t>
   </si>
   <si>
     <t>Specifies whether at least one additional population of this taxon has been translocated in the same year to the same region in the same project</t>
   </si>
   <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether at least one additional population of this taxon has been translocated in the same year to the same region in the same project</t>
+  </si>
+  <si>
+    <t>lst_general.info gives an option whether at least one additional population of this taxon has been translocated in the same year to the same region in the same project or not in French.</t>
+  </si>
+  <si>
+    <t>lst_general.info_en gives  an option whether at least one additional population of this taxon has been translocated in the same year to the same region in the same project or not in English.</t>
+  </si>
+  <si>
     <t>Multi-species</t>
   </si>
   <si>
     <t>Specifies whether at least one additional species has been translocated in the same year to the same particular site</t>
   </si>
   <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether at least one additional species has been translocated in the same year to the same particular site</t>
+  </si>
+  <si>
+    <t>lst_general.info gives an option  whether at least one additional species has been translocated in the same year to the same particular site or not in French.</t>
+  </si>
+  <si>
+    <t>lst_general.info_en gives  an option  whether at least one additional species has been translocated in the same year to the same particular site or not in English.</t>
+  </si>
+  <si>
+    <t>first_release</t>
+  </si>
+  <si>
+    <t>integer replicate of tab_releases.release_yr_character varying(255)</t>
+  </si>
+  <si>
+    <t>first_rst_year1</t>
+  </si>
+  <si>
+    <t>integer replicate of tab_releases.year2_character varying(255)</t>
+  </si>
+  <si>
+    <t>first_rst_year2</t>
+  </si>
+  <si>
+    <t>integer replicate of tab_releases.year1_character varying(255)</t>
+  </si>
+  <si>
     <t>Year of last RST if known precisely</t>
   </si>
   <si>
+    <t>Year of last release/sowing/transplantation if known precisely</t>
+  </si>
+  <si>
+    <t>last_release</t>
+  </si>
+  <si>
     <t>Year of last RST - lower limit</t>
   </si>
   <si>
+    <t>Lower limit of the interval of years of the last RST</t>
+  </si>
+  <si>
+    <t>last_rst_year1</t>
+  </si>
+  <si>
     <t>Year of last RST - upper limit</t>
   </si>
   <si>
+    <t>Upper limit of the interval of years of the last RST</t>
+  </si>
+  <si>
+    <t>last_rst_year2</t>
+  </si>
+  <si>
     <t>Program phase</t>
   </si>
   <si>
     <t>Phase of the translocation project at the time of the last available information</t>
+  </si>
+  <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "phase", specifies the phase of the translocation project at the time of the last available information</t>
+  </si>
+  <si>
+    <t>lst_general.info specifies the phase of the translocation project in French.</t>
+  </si>
+  <si>
+    <t>lst_general.info_en specifies the phase of the translocation project in English.</t>
   </si>
   <si>
     <t>Metapopulation</t>
@@ -544,6 +619,12 @@
  </t>
   </si>
   <si>
+    <t>metapop</t>
+  </si>
+  <si>
+    <t>character varying(75)</t>
+  </si>
+  <si>
     <t>Community</t>
   </si>
   <si>
@@ -551,12 +632,18 @@
  </t>
   </si>
   <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>Translocation type remarks</t>
   </si>
   <si>
     <t>Remarks about translocation type or phase</t>
   </si>
   <si>
+    <t>typ_rem</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -566,6 +653,12 @@
     <t>Locality of the centre of the translocated population at the time of the last available information</t>
   </si>
   <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>character varying(70)</t>
+  </si>
+  <si>
     <t>Country of the centre of the translocated population at the time of the last available information</t>
   </si>
   <si>
@@ -575,12 +668,18 @@
     <t>Region of the centre of the translocated population at the time of the last available information</t>
   </si>
   <si>
+    <t>region</t>
+  </si>
+  <si>
     <t>Province</t>
   </si>
   <si>
     <t>Province of the centre of the translocated population at the time of the last available information</t>
   </si>
   <si>
+    <t>disctrict</t>
+  </si>
+  <si>
     <t>Locality</t>
   </si>
   <si>
@@ -590,43 +689,76 @@
     <t>Latitude of the locality entered (WGS 84 geographic coordinate system)</t>
   </si>
   <si>
+    <t>lat_loc</t>
+  </si>
+  <si>
+    <t>double precision</t>
+  </si>
+  <si>
     <t>Locality longitude</t>
   </si>
   <si>
     <t>Longitude of the locality entered (WGS 84 geographic coordinate system)</t>
   </si>
   <si>
+    <t>long_loc</t>
+  </si>
+  <si>
     <t>Other localities over which the population extends</t>
   </si>
   <si>
+    <t>other_locality</t>
+  </si>
+  <si>
     <t>Confidentiality of precise population location</t>
   </si>
   <si>
     <t>Specifies whether the precise location of the population should remain confidential or not</t>
   </si>
   <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "confidential", specifies whether the precise location of the population should remain confidential or not</t>
+  </si>
+  <si>
+    <t>lst_general.info specifies whether the precise location of the population should remain confidential or not in French.</t>
+  </si>
+  <si>
+    <t>lst_general.info_enspecifies whether the precise location of the population should remain confidential or not in English.</t>
+  </si>
+  <si>
     <t>Pop. latitude</t>
   </si>
   <si>
     <t>Latitude of centre of the population in decimal degrees (WGS 84 geographic coordinate system)</t>
   </si>
   <si>
+    <t>lat_pop</t>
+  </si>
+  <si>
     <t>Pop. longitude</t>
   </si>
   <si>
     <t>Longitude of centre of the population in decimal degrees (WGS 84 geographic coordinate system)</t>
   </si>
   <si>
+    <t>long_pop</t>
+  </si>
+  <si>
     <t>Population location (textual)</t>
   </si>
   <si>
     <t>Textual description of the accurate location of the centre of the translocated population, at the time of the last available information</t>
   </si>
   <si>
+    <t>lieu_dit</t>
+  </si>
+  <si>
     <t>Remarks on population location</t>
   </si>
   <si>
     <t>Remarks about location</t>
+  </si>
+  <si>
+    <t>loc_rem</t>
   </si>
   <si>
     <t>Hosting site</t>
@@ -1541,7 +1673,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1566,6 +1698,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1579,7 +1717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1610,6 +1748,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1904,20 +2043,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
@@ -1925,7 +2064,7 @@
     <col min="10" max="10" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3101,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,10 +3251,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -3127,22 +3266,11 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D65" t="s">
-        <v>157</v>
-      </c>
+      <c r="C65" s="2"/>
       <c r="G65" t="s">
         <v>40</v>
       </c>
@@ -3153,22 +3281,11 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D66" t="s">
-        <v>159</v>
-      </c>
+      <c r="C66" s="2"/>
       <c r="G66" t="s">
         <v>40</v>
       </c>
@@ -3179,7 +3296,7 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3189,39 +3306,53 @@
       <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="C67" t="s">
-        <v>27</v>
+      <c r="C67" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>161</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" t="s">
-        <v>32</v>
+      <c r="C68" s="2"/>
+      <c r="G68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" t="s">
-        <v>35</v>
+      <c r="C69" s="2"/>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3231,39 +3362,53 @@
       <c r="B70" t="s">
         <v>134</v>
       </c>
-      <c r="C70" t="s">
-        <v>160</v>
+      <c r="C70" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>166</v>
+      </c>
+      <c r="G70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" t="s">
-        <v>32</v>
+      <c r="C71" s="2"/>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" t="s">
-        <v>35</v>
+      <c r="C72" s="2"/>
+      <c r="G72" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3274,10 +3419,22 @@
         <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>28</v>
+      </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" t="s">
+        <v>170</v>
+      </c>
+      <c r="I73" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3287,11 +3444,23 @@
       <c r="B74" t="s">
         <v>134</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>165</v>
+      <c r="C74" t="s">
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" t="s">
+        <v>172</v>
+      </c>
+      <c r="I74" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3301,11 +3470,23 @@
       <c r="B75" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>167</v>
+      <c r="C75" t="s">
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I75" t="s">
+        <v>48</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3315,28 +3496,66 @@
       <c r="B76" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>169</v>
+      <c r="C76" t="s">
+        <v>176</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+        <v>177</v>
+      </c>
+      <c r="G76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s">
+        <v>178</v>
+      </c>
+      <c r="I76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" t="s">
+        <v>180</v>
+      </c>
+      <c r="G77" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" t="s">
+        <v>181</v>
+      </c>
+      <c r="I77" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>183</v>
+      </c>
+      <c r="G78" t="s">
+        <v>52</v>
+      </c>
+      <c r="H78" t="s">
+        <v>184</v>
+      </c>
+      <c r="I78" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3344,456 +3563,616 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" t="s">
+        <v>186</v>
+      </c>
+      <c r="G79" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="G83" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" t="s">
+        <v>196</v>
+      </c>
+      <c r="I83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G84" t="s">
+        <v>52</v>
+      </c>
+      <c r="H84" t="s">
+        <v>199</v>
+      </c>
+      <c r="I84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s">
+        <v>203</v>
+      </c>
+      <c r="I86" t="s">
+        <v>204</v>
+      </c>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" t="s">
         <v>23</v>
       </c>
-      <c r="D79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" t="s">
-        <v>175</v>
-      </c>
-      <c r="D80" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" t="s">
-        <v>171</v>
-      </c>
-      <c r="C81" t="s">
-        <v>177</v>
-      </c>
-      <c r="D81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C82" t="s">
-        <v>179</v>
-      </c>
-      <c r="D82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" t="s">
-        <v>185</v>
-      </c>
-      <c r="D86" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="D87" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="G87" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="C88" t="s">
+        <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="G88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" t="s">
+        <v>208</v>
+      </c>
+      <c r="I88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>191</v>
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>209</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="G89" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" t="s">
+        <v>211</v>
+      </c>
+      <c r="I89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s">
+        <v>203</v>
+      </c>
+      <c r="I90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" t="s">
+        <v>215</v>
+      </c>
+      <c r="I91" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>217</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="C93" t="s">
+        <v>220</v>
       </c>
       <c r="D93" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" t="s">
+        <v>221</v>
+      </c>
+      <c r="I93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="C94" t="s">
+        <v>222</v>
+      </c>
       <c r="D94" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D95" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="G94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s">
+        <v>43</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s">
+        <v>45</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="G97" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" t="s">
+        <v>229</v>
+      </c>
+      <c r="I97" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D98" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="G98" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98" t="s">
+        <v>232</v>
+      </c>
+      <c r="I98" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="D99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="G99" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" t="s">
+        <v>235</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>195</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="10"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="G100" t="s">
+        <v>52</v>
+      </c>
+      <c r="H100" t="s">
+        <v>238</v>
+      </c>
+      <c r="I100" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D103" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="D104" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="10"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="D106" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
-      </c>
-      <c r="C107" t="s">
-        <v>224</v>
+        <v>239</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D107" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
-      </c>
-      <c r="C108" t="s">
-        <v>226</v>
+        <v>239</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D108" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D109" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="D110" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D111" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>221</v>
-      </c>
-      <c r="C112" t="s">
-        <v>23</v>
-      </c>
-      <c r="D112" t="s">
-        <v>234</v>
-      </c>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="10"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
-      </c>
-      <c r="C113" t="s">
-        <v>175</v>
+        <v>260</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="D113" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,41 +4180,30 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
-      </c>
-      <c r="C114" t="s">
-        <v>177</v>
+        <v>260</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="D114" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" t="s">
-        <v>179</v>
-      </c>
-      <c r="D115" t="s">
-        <v>237</v>
-      </c>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="10"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
-      </c>
-      <c r="C116" t="s">
-        <v>180</v>
+        <v>265</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D116" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,13 +4211,13 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C117" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,13 +4225,13 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="D118" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,13 +4239,13 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>187</v>
+        <v>265</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,13 +4253,13 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>189</v>
+        <v>265</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D120" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,13 +4267,13 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>191</v>
+        <v>265</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="D121" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,30 +4281,41 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>239</v>
+        <v>265</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="D124" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3944,13 +4323,13 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>244</v>
+        <v>265</v>
+      </c>
+      <c r="C125" t="s">
+        <v>212</v>
       </c>
       <c r="D125" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3958,13 +4337,13 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>241</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>246</v>
+        <v>265</v>
+      </c>
+      <c r="C126" t="s">
+        <v>213</v>
       </c>
       <c r="D126" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3972,13 +4351,13 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>248</v>
+        <v>265</v>
+      </c>
+      <c r="C127" t="s">
+        <v>217</v>
       </c>
       <c r="D127" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3986,13 +4365,13 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>250</v>
+        <v>265</v>
+      </c>
+      <c r="C128" t="s">
+        <v>222</v>
       </c>
       <c r="D128" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4000,13 +4379,13 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>241</v>
-      </c>
-      <c r="C129" t="s">
-        <v>252</v>
+        <v>265</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D129" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4014,13 +4393,13 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4028,13 +4407,13 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="D131" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4042,41 +4421,30 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="D132" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" t="s">
-        <v>241</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D133" t="s">
-        <v>261</v>
-      </c>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>262</v>
+        <v>285</v>
+      </c>
+      <c r="C134" t="s">
+        <v>286</v>
       </c>
       <c r="D134" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,13 +4452,13 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="D135" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4098,13 +4466,13 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D136" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4112,13 +4480,13 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D137" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4126,13 +4494,13 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,13 +4508,13 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
+      </c>
+      <c r="C139" t="s">
+        <v>296</v>
       </c>
       <c r="D139" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4154,13 +4522,13 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D140" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4168,13 +4536,13 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4182,13 +4550,13 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
-      </c>
-      <c r="C142" t="s">
-        <v>278</v>
+        <v>285</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="D142" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,13 +4564,13 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>241</v>
-      </c>
-      <c r="C143" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="D143" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4210,13 +4578,13 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
-      </c>
-      <c r="C144" t="s">
-        <v>282</v>
+        <v>285</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="D144" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4224,13 +4592,13 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>241</v>
-      </c>
-      <c r="C145" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="D145" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4238,13 +4606,13 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>241</v>
-      </c>
-      <c r="C146" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="D146" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,13 +4620,13 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>241</v>
-      </c>
-      <c r="C147" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="D147" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4266,13 +4634,13 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>241</v>
-      </c>
-      <c r="C148" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="D148" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4280,13 +4648,13 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
-      </c>
-      <c r="C149" t="s">
-        <v>292</v>
+        <v>285</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="D149" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,28 +4662,41 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>241</v>
-      </c>
-      <c r="C150" t="s">
-        <v>294</v>
+        <v>285</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="D150" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>285</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D151" t="s">
+        <v>321</v>
+      </c>
+    </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C152" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="D152" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,13 +4704,13 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C153" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="D153" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4337,13 +4718,13 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C154" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="D154" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,13 +4732,13 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C155" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="D155" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4365,13 +4746,13 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C156" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="D156" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4379,13 +4760,13 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C157" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D157" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4393,56 +4774,56 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="D158" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>285</v>
+      </c>
+      <c r="C159" t="s">
+        <v>336</v>
+      </c>
+      <c r="D159" t="s">
+        <v>337</v>
+      </c>
+    </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C160" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="D160" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161" t="s">
-        <v>310</v>
-      </c>
-      <c r="C161" t="s">
-        <v>313</v>
-      </c>
-      <c r="D161" t="s">
-        <v>314</v>
-      </c>
-    </row>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C162" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="D162" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,13 +4831,13 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C163" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="D163" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,13 +4845,13 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C164" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="D164" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4478,13 +4859,13 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C165" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="D165" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,13 +4873,13 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C166" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="D166" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4506,13 +4887,13 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C167" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="D167" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,41 +4901,28 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C168" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="D168" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" t="s">
-        <v>310</v>
-      </c>
-      <c r="C169" t="s">
-        <v>329</v>
-      </c>
-      <c r="D169" t="s">
-        <v>330</v>
-      </c>
-    </row>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="D170" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4562,13 +4930,13 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C171" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="D171" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4576,13 +4944,13 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>310</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>335</v>
+        <v>354</v>
+      </c>
+      <c r="C172" t="s">
+        <v>359</v>
       </c>
       <c r="D172" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,13 +4958,13 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="D173" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4604,13 +4972,13 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C174" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="D174" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,13 +4986,13 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C175" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="D175" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4632,227 +5000,237 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C176" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="D176" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C177" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="D177" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C178" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="D178" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C179" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="D179" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C180" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="D180" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C181" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="D181" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" t="s">
-        <v>310</v>
-      </c>
-      <c r="C182" t="s">
-        <v>355</v>
+      <c r="C182" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="D182" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C183" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="D183" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C184" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="D184" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C185" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="D185" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C186" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="D186" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C187" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="D187" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C188" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="D188" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C189" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="D189" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>354</v>
+      </c>
+      <c r="C190" t="s">
+        <v>395</v>
+      </c>
+      <c r="D190" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C191" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="D191" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C192" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="D192" t="s">
-        <v>374</v>
-      </c>
-      <c r="E192" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4860,16 +5238,234 @@
         <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C193" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D193" t="s">
-        <v>376</v>
-      </c>
-      <c r="E193" t="s">
-        <v>376</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>354</v>
+      </c>
+      <c r="C194" t="s">
+        <v>403</v>
+      </c>
+      <c r="D194" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>354</v>
+      </c>
+      <c r="C195" t="s">
+        <v>405</v>
+      </c>
+      <c r="D195" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>354</v>
+      </c>
+      <c r="C196" t="s">
+        <v>407</v>
+      </c>
+      <c r="D196" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>354</v>
+      </c>
+      <c r="C197" t="s">
+        <v>409</v>
+      </c>
+      <c r="D197" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>354</v>
+      </c>
+      <c r="C198" t="s">
+        <v>411</v>
+      </c>
+      <c r="D198" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>354</v>
+      </c>
+      <c r="C199" t="s">
+        <v>412</v>
+      </c>
+      <c r="D199" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>414</v>
+      </c>
+      <c r="C201" t="s">
+        <v>415</v>
+      </c>
+      <c r="D201" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>414</v>
+      </c>
+      <c r="C202" t="s">
+        <v>417</v>
+      </c>
+      <c r="D202" t="s">
+        <v>418</v>
+      </c>
+      <c r="E202" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" t="s">
+        <v>414</v>
+      </c>
+      <c r="C203" t="s">
+        <v>419</v>
+      </c>
+      <c r="D203" t="s">
+        <v>420</v>
+      </c>
+      <c r="E203" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>25</v>
+      </c>
+      <c r="H224" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>25</v>
+      </c>
+      <c r="H225" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>25</v>
+      </c>
+      <c r="H226" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>25</v>
+      </c>
+      <c r="H227" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>25</v>
+      </c>
+      <c r="H228" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>25</v>
+      </c>
+      <c r="H229" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>25</v>
+      </c>
+      <c r="H230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>25</v>
+      </c>
+      <c r="H231" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>40</v>
+      </c>
+      <c r="H232" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>40</v>
+      </c>
+      <c r="H233" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>40</v>
+      </c>
+      <c r="H234" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4915,99 +5511,99 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -5018,13 +5614,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C9" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -5032,314 +5628,314 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="D12" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C13" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="D13" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="D14" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="D15" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C16" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="D17" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C21" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C22" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="D22" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B23" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C23" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="D24" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B26" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="D26" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B28" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C28" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="D28" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B29" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C29" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="D29" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C30" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B31" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C31" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="D31" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C32" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B33" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C33" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="D33" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B34" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C34" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="D34" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B35" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C35" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -5384,35 +5980,35 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5423,7 +6019,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -5437,7 +6033,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -5451,13 +6047,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -5465,7 +6061,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -5479,7 +6075,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -5493,7 +6089,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -5507,7 +6103,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -5521,7 +6117,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -5541,119 +6137,119 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -5667,7 +6263,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -5681,13 +6277,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
@@ -5695,7 +6291,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -5704,12 +6300,12 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -5723,35 +6319,35 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -5771,7 +6367,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -5780,12 +6376,12 @@
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -5799,7 +6395,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -5808,12 +6404,12 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -5822,12 +6418,12 @@
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -5836,12 +6432,12 @@
         <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -5850,12 +6446,12 @@
         <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
@@ -5864,12 +6460,12 @@
         <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -5883,7 +6479,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -5897,7 +6493,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -5911,7 +6507,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -5925,21 +6521,21 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="D42" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -5953,7 +6549,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -5967,7 +6563,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -5987,13 +6583,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B47" t="s">
         <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="D47" t="s">
         <v>136</v>
@@ -6001,13 +6597,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B48" t="s">
         <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -6015,7 +6611,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B49" t="s">
         <v>134</v>
@@ -6029,7 +6625,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B50" t="s">
         <v>134</v>
@@ -6043,49 +6639,49 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B51" t="s">
         <v>134</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B52" t="s">
         <v>134</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B53" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B54" t="s">
         <v>134</v>
@@ -6099,7 +6695,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B55" t="s">
         <v>134</v>
@@ -6113,7 +6709,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B56" t="s">
         <v>134</v>
@@ -6127,13 +6723,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B57" t="s">
         <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
@@ -6141,13 +6737,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B58" t="s">
         <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
         <v>32</v>
@@ -6155,13 +6751,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B59" t="s">
         <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -6169,58 +6765,58 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s">
         <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s">
         <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B62" t="s">
         <v>134</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B63" t="s">
         <v>134</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6231,184 +6827,184 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="D75" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,142 +7015,142 @@
     </row>
     <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="D79" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="D84" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="D86" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -6565,30 +7161,30 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -6599,240 +7195,240 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="D94" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="D95" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="D96" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="D97" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B98" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C101" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C102" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D102" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C103" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="D107" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D108" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="D109" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -6843,394 +7439,394 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B111" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="D111" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B112" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="D112" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B113" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="D113" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B114" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="D114" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B115" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B116" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C116" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B117" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="D117" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B118" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="D118" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B119" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="D119" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="D120" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="D121" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="D122" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="D123" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C124" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="D124" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="D125" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B126" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="D126" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="D127" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="D128" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B129" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B130" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="D130" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="D131" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C132" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="D132" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B133" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C133" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="D133" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C134" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="D134" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C135" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="D135" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C136" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="D136" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C137" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="D137" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B138" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C138" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="D138" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -7241,100 +7837,100 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B140" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="D140" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="C141" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="D141" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="C142" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="D142" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B143" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="C143" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="D143" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="C144" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="D144" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B145" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="C145" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="D145" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B146" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="C146" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="D146" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -7345,436 +7941,436 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B148" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C148" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="D148" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B149" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C149" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B150" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C150" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="D150" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B151" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C151" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="D151" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C152" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="D152" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B153" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C153" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="D153" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C154" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="D154" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C155" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="D155" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B156" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C156" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="D156" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C157" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="D157" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C158" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="D158" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B159" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="D159" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B160" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C160" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="D160" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B161" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="D161" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B162" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C162" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="D162" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B163" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C163" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="D163" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B164" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C164" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="D164" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B165" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C165" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="D165" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B166" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C166" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="D166" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B167" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C167" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="D167" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B168" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C168" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="D168" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B169" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C169" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="D169" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B170" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="D170" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B171" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C171" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="D171" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B172" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C172" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="D172" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B173" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="D173" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C174" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="D174" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B175" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C175" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="D175" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B176" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C176" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="D176" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B177" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C177" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="D177" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B178" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C178" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="D178" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -7785,44 +8381,44 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B180" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="C180" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="D180" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="C181" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="D181" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="B182" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="C182" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="D182" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -7867,99 +8463,99 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -7970,13 +8566,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C9" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -7984,314 +8580,314 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="D12" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C13" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="D13" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="D14" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="D15" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C16" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="D17" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C21" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C22" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="D22" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B23" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C23" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="D24" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B26" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="D26" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B28" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C28" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="D28" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B29" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C29" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="D29" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C30" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B31" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C31" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="D31" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C32" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B33" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C33" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="D33" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B34" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C34" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="D34" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B35" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C35" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/workinprogress/TransLoc_Data-dictionary_v0.xlsx
+++ b/workinprogress/TransLoc_Data-dictionary_v0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\gitlab\transloc\notes\DMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E3E1BB-A022-4134-A228-55F115E40C7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{083F68BC-160C-431B-8061-A44643C0CF1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="517">
   <si>
     <t>Web page</t>
   </si>
@@ -162,45 +162,24 @@
     <t>Specifies how the initial information about this translocated population was collected</t>
   </si>
   <si>
-    <t>lst_general</t>
-  </si>
-  <si>
-    <t>choice_lst</t>
+    <t>tab_populations</t>
+  </si>
+  <si>
+    <t>fk_init_info</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
   <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "source_info" gives how the initial information about this translocated population was collected,</t>
   </si>
   <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>lst_general.info gives a list of source information in French</t>
-  </si>
-  <si>
-    <t>info_en</t>
-  </si>
-  <si>
-    <t>lst_general.info_en gives a list of source information in English</t>
-  </si>
-  <si>
-    <t>lst_order</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>lst_general.lst_order assigns a unique number to the given field listed in the general list</t>
-  </si>
-  <si>
     <t>Referenced</t>
   </si>
   <si>
     <t>Specifies whether there is at least one referenced document dealing with this translocated population</t>
   </si>
   <si>
-    <t>tab_populations</t>
-  </si>
-  <si>
     <t>publication</t>
   </si>
   <si>
@@ -264,45 +243,36 @@
     <t>Gives the initial motivation behind the translocation</t>
   </si>
   <si>
+    <t>fk_reason</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "motif" states whether the translocation was conservation or mitigation driven.</t>
   </si>
   <si>
-    <t>lst_general.info gives a list of motivations in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info_en gives a list of motivations in English.</t>
-  </si>
-  <si>
     <t>Species protection status</t>
   </si>
   <si>
-    <t>Specifies whether, when setting up project, the translocated taxon benefited from a European, national or rgional protection status</t>
+    <t>Specifies whether, when setting up project, the translocated taxon benefited from a European, national or regional protection status</t>
+  </si>
+  <si>
+    <t>fk_legal_protect</t>
   </si>
   <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "stat_protection" specifies whether, when setting up project, the translocated taxon benefited from a European, national or rgional protection status.</t>
   </si>
   <si>
-    <t>lst_general.info gives a list of protection statuses in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info_en gives a list of protection status in English.</t>
-  </si>
-  <si>
     <t>Rescue</t>
   </si>
   <si>
     <t>Specifies whether or not some of the translocated individuals were translocated because they would otherwise have been destroyed by alteration of their original habitat.</t>
   </si>
   <si>
+    <t>fk_rescue</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether or not some of the translocated individuals were translocated because they would otherwise have been destroyed by alteration of their original habitat.</t>
   </si>
   <si>
-    <t>lst_general.info gives a list of case of rescue or not in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info_en gives  case of rescue or not in English.</t>
-  </si>
-  <si>
     <t>Extinction year previous pop (known precisely)</t>
   </si>
   <si>
@@ -351,27 +321,6 @@
     <t>lst_drivers.chx_lst with value "direct"  gives a list of direct drivers of proximate causes of population decline</t>
   </si>
   <si>
-    <t>driver</t>
-  </si>
-  <si>
-    <t>character varying(150)</t>
-  </si>
-  <si>
-    <t>lst_drivers.driver lists the drivers in French</t>
-  </si>
-  <si>
-    <t>driver_en</t>
-  </si>
-  <si>
-    <t>lst_drivers.chx_lst.driver_en lists the drivers in English</t>
-  </si>
-  <si>
-    <t>order_driver</t>
-  </si>
-  <si>
-    <t>lst_drivers.order_drivers assigns a unique number to a driver</t>
-  </si>
-  <si>
     <t>Underlying factors</t>
   </si>
   <si>
@@ -414,12 +363,6 @@
     <t>lst_justif.justfication_en lists the justifications in English</t>
   </si>
   <si>
-    <t>justification</t>
-  </si>
-  <si>
-    <t>lst_justif.justfication_en lists the justifications in French</t>
-  </si>
-  <si>
     <t>Further details on justifications</t>
   </si>
   <si>
@@ -453,105 +396,84 @@
     <t>Specifies the translocation type according to Commander (2018) classification</t>
   </si>
   <si>
+    <t>fk_altern_typ</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "type_altern" specifies the translocation type according to the Commander (2018) classification.</t>
   </si>
   <si>
-    <t>lst_general.info gives a list of Commander (2018) translocation types in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info gives a list of Commander (2018) translocation types in English.</t>
-  </si>
-  <si>
     <t>IUCN type</t>
   </si>
   <si>
     <t>Specifies the translocation type according to IUCN/SSC (2013) classification</t>
   </si>
   <si>
+    <t>fk_transloc_typ</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "type_transloc" specifies the translocation type according to IUCN/SSC (2013) classification.</t>
   </si>
   <si>
-    <t>lst_general.info gives a list ofIUCN/SSC 2013 translocation types in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info gives a list of IUCN/SSC 2013 translocation types in English.</t>
-  </si>
-  <si>
     <t>Reinforcement type</t>
   </si>
   <si>
     <t>Specifies the place where the translocated individuals were born, in the case of reinforcement</t>
   </si>
   <si>
+    <t>fk_reinfor_typ</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "type_renfo" specifies the place where the translocated individuals were born, in the case of reinforcement.</t>
   </si>
   <si>
-    <t>lst_general.info gives a list of reinforcement types in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info gives a list of reinforcement types in English.</t>
-  </si>
-  <si>
     <t>Clustering</t>
   </si>
   <si>
     <t>Specifies whether the translocated population constitutes a clustering of at least two entities considered separately in documents describing this translocation</t>
   </si>
   <si>
+    <t>fk_clustering</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether the translocated population constitutes a clustering of at least two entities considered separately in documents describing this translocation</t>
   </si>
   <si>
-    <t>lst_general.info_en an option of clustering of at least two entities considered separately  or not in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info_en an option of clustering of at least two entities considered separately  or not in English.</t>
-  </si>
-  <si>
     <t>Separation</t>
   </si>
   <si>
     <t>Specifies whether the translocated population constitutes a separate entity of a larger group considered as a population in documents describing this population</t>
   </si>
   <si>
+    <t>fk_separation</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether the translocated population constitutes a separate entity of a larger group considered as a population in documents describing this population</t>
   </si>
   <si>
-    <t>lst_general.info gives an option of whether the population constitutes a separate entity of a larger group  or not in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info gives an option of whether the population constitutes a separate entity of a larger group  or not in English.</t>
-  </si>
-  <si>
     <t>Multi-site</t>
   </si>
   <si>
     <t>Specifies whether at least one additional population of this taxon has been translocated in the same year to the same region in the same project</t>
   </si>
   <si>
+    <t>fk_multisite</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether at least one additional population of this taxon has been translocated in the same year to the same region in the same project</t>
   </si>
   <si>
-    <t>lst_general.info gives an option whether at least one additional population of this taxon has been translocated in the same year to the same region in the same project or not in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info_en gives  an option whether at least one additional population of this taxon has been translocated in the same year to the same region in the same project or not in English.</t>
-  </si>
-  <si>
     <t>Multi-species</t>
   </si>
   <si>
     <t>Specifies whether at least one additional species has been translocated in the same year to the same particular site</t>
   </si>
   <si>
+    <t>fk_multi_sp</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether at least one additional species has been translocated in the same year to the same particular site</t>
   </si>
   <si>
-    <t>lst_general.info gives an option  whether at least one additional species has been translocated in the same year to the same particular site or not in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info_en gives  an option  whether at least one additional species has been translocated in the same year to the same particular site or not in English.</t>
-  </si>
-  <si>
     <t>first_release</t>
   </si>
   <si>
@@ -603,13 +525,10 @@
     <t>Phase of the translocation project at the time of the last available information</t>
   </si>
   <si>
+    <t>fk_phase</t>
+  </si>
+  <si>
     <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "phase", specifies the phase of the translocation project at the time of the last available information</t>
-  </si>
-  <si>
-    <t>lst_general.info specifies the phase of the translocation project in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info_en specifies the phase of the translocation project in English.</t>
   </si>
   <si>
     <t>Metapopulation</t>
@@ -683,6 +602,9 @@
     <t>Locality</t>
   </si>
   <si>
+    <t>town</t>
+  </si>
+  <si>
     <t>Locality latitude</t>
   </si>
   <si>
@@ -716,13 +638,7 @@
     <t>Specifies whether the precise location of the population should remain confidential or not</t>
   </si>
   <si>
-    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "confidential", specifies whether the precise location of the population should remain confidential or not</t>
-  </si>
-  <si>
-    <t>lst_general.info specifies whether the precise location of the population should remain confidential or not in French.</t>
-  </si>
-  <si>
-    <t>lst_general.info_enspecifies whether the precise location of the population should remain confidential or not in English.</t>
+    <t>fk_confidential</t>
   </si>
   <si>
     <t>Pop. latitude</t>
@@ -761,6 +677,15 @@
     <t>loc_rem</t>
   </si>
   <si>
+    <t>geom_loc</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>uses the postgis funtion ST_SetSRID(ST_POINT($long, $lat), 4326) to generate a point geometry</t>
+  </si>
+  <si>
     <t>Hosting site</t>
   </si>
   <si>
@@ -770,58 +695,106 @@
     <t>List of considerations that weighed in the search for or choice of hosting site</t>
   </si>
   <si>
+    <t>lst_choice_site</t>
+  </si>
+  <si>
+    <t>criteria_en</t>
+  </si>
+  <si>
+    <t>List of considerations that weighed in the search for or choice of hosting site, in English</t>
+  </si>
+  <si>
     <t>Main criteria</t>
   </si>
   <si>
     <t>Distinguishes between the main criteria ("checked" box) and the secondary criteria ("unchecked" box) that weighed in the search for or choice of hosting site.</t>
   </si>
   <si>
+    <t>no server side logic for checkboxes, ... $_POST['main_justif'] found for Justification checkbox, should it be kept? TO DO: choice_check[]</t>
+  </si>
+  <si>
     <t>Distance nearest pop.</t>
   </si>
   <si>
     <t xml:space="preserve">Distance in km between the translocated population and the nearest population of the same taxon at the time of the first RST </t>
   </si>
   <si>
+    <t>dist</t>
+  </si>
+  <si>
     <t>Nearest and origin</t>
   </si>
   <si>
     <t>Specifies whether the nearest population is one of the populations from which the translocated individuals (or their close ancestors) were born</t>
   </si>
   <si>
+    <t>fk_near_origin</t>
+  </si>
+  <si>
     <t>Connection</t>
   </si>
   <si>
     <t xml:space="preserve">Specifies whether the translocated population could be connected by gene flow to another population existing at the time of the first RST </t>
   </si>
   <si>
+    <t>fk_connex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "connex", specifies whether the translocated population could be connected by gene flow to another population existing at the time of the first RST </t>
+  </si>
+  <si>
     <t>Isolation cause</t>
   </si>
   <si>
     <t>Any information that explains why 'Likely’ or ‘Unlikely’ was mentioned in the 'Connection' field</t>
   </si>
   <si>
+    <t>isol_caus</t>
+  </si>
+  <si>
     <t>Initial protection</t>
   </si>
   <si>
     <t>Specifies whether the hosting site was, at the time of first RST, partly or completely within a protected area</t>
   </si>
   <si>
+    <t>fk_protec_init</t>
+  </si>
+  <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether the hosting site was, at the time of first RST, partly or completely within a protected area</t>
+  </si>
+  <si>
     <t>Protection last check</t>
   </si>
   <si>
     <t>Specifies whether the hosting site was, at the time of the most recent information available, partly or completely within a protected area</t>
   </si>
   <si>
+    <t>fk_protec_last_check</t>
+  </si>
+  <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether the hosting site was, at the time of the most recent information available, partly or completely within a protected area</t>
+  </si>
+  <si>
     <t>Consequence on protection</t>
   </si>
   <si>
     <t>Specifies whether the hosting site benefited from a protected status following translocation and as a consequence of the translocation</t>
   </si>
   <si>
+    <t>fk_csq_protec</t>
+  </si>
+  <si>
+    <t>lst_general.choice_lst filters a general list to search for specifics about the translocation population, using the value "boolean", specifies whether the hosting site benefited from a protected status following translocation and as a consequence of the translocation</t>
+  </si>
+  <si>
     <t>Site remarks</t>
   </si>
   <si>
     <t>Remarks about hosting site</t>
+  </si>
+  <si>
+    <t>sit_rem</t>
   </si>
   <si>
     <t>Habitat type</t>
@@ -1328,6 +1301,18 @@
     <t>Level of relevance (in terms of redundancy with other documents) of the document for the translocated population</t>
   </si>
   <si>
+    <t>lst_general</t>
+  </si>
+  <si>
+    <t>choice_lst</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>info_en</t>
+  </si>
+  <si>
     <t>Note</t>
   </si>
   <si>
@@ -1584,9 +1569,6 @@
   </si>
   <si>
     <t>List of organisations (e.g. public institutions, associations, private companies, etc.) and programmes (e.g. LIFE programmes) involved in the translocation project</t>
-  </si>
-  <si>
-    <t>Specifies whether, when setting up project, the translocated taxon benefited from a European, national or regional protection status</t>
   </si>
   <si>
     <t>Specifies whether at least some of the translocated individuals were translocated because they would otherwise have been destroyed by alteration of their original habitat</t>
@@ -1673,7 +1655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1704,6 +1686,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1717,7 +1705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1749,6 +1737,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2043,17 +2032,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J234"/>
+  <dimension ref="A1:N198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="51.140625" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
@@ -2296,52 +2285,79 @@
         <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
       <c r="G12" t="s">
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
       <c r="G13" t="s">
         <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
       <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>47</v>
+      <c r="H14" t="s">
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2351,20 +2367,20 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>50</v>
+      <c r="C15" t="s">
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2375,50 +2391,28 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
@@ -2427,13 +2421,13 @@
         <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2441,46 +2435,77 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2488,53 +2513,68 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
       <c r="G23" t="s">
         <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
       <c r="G24" t="s">
         <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2542,53 +2582,74 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
+        <v>89</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
       <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>43</v>
+        <v>89</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2596,53 +2657,71 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
       <c r="G29" t="s">
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
       <c r="G30" t="s">
         <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2650,68 +2729,49 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I32" t="s">
-        <v>90</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2719,67 +2779,103 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>122</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
       <c r="G35" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
+      </c>
+      <c r="H35" t="s">
+        <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
       <c r="G36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>130</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>133</v>
+      </c>
       <c r="G37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>108</v>
+        <v>40</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2787,67 +2883,103 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>138</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>141</v>
+      </c>
       <c r="G39" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
+      </c>
+      <c r="H39" t="s">
+        <v>142</v>
       </c>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
       <c r="G40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>144</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
-      </c>
-      <c r="J40" t="s">
-        <v>107</v>
+        <v>42</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
       <c r="G41" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>108</v>
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>146</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41" t="s">
-        <v>109</v>
+        <v>42</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2855,22 +2987,25 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="I42" t="s">
-        <v>117</v>
+        <v>42</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2878,39 +3013,45 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="I43" t="s">
-        <v>122</v>
-      </c>
-      <c r="J43" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I44" t="s">
-        <v>122</v>
-      </c>
-      <c r="J44" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2918,22 +3059,22 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2941,22 +3082,25 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="J46" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2964,91 +3108,120 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>115</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="G49" t="s">
         <v>40</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" t="s">
-        <v>139</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="J51"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
       <c r="G52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
-      </c>
-      <c r="J52" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3056,67 +3229,93 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" t="s">
+        <v>183</v>
+      </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" t="s">
-        <v>144</v>
-      </c>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" t="s">
+        <v>188</v>
+      </c>
       <c r="G56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>189</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
-      </c>
-      <c r="J56" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3124,67 +3323,91 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" t="s">
+        <v>197</v>
+      </c>
       <c r="G59" t="s">
         <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" t="s">
+        <v>200</v>
+      </c>
       <c r="G60" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>47</v>
+      <c r="H60" t="s">
+        <v>201</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
-      </c>
-      <c r="J60" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3192,987 +3415,830 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>150</v>
+        <v>173</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
       </c>
       <c r="H61" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" t="s">
+        <v>206</v>
+      </c>
       <c r="G62" t="s">
         <v>40</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="I62" t="s">
         <v>14</v>
       </c>
-      <c r="J62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" t="s">
+        <v>209</v>
+      </c>
       <c r="G63" t="s">
         <v>40</v>
       </c>
       <c r="H63" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" t="s">
-        <v>156</v>
-      </c>
       <c r="G64" t="s">
         <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="J64" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-      <c r="G65" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" t="s">
+        <v>216</v>
+      </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="H66" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
-      </c>
-      <c r="G67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s">
-        <v>41</v>
-      </c>
-      <c r="I67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" t="s">
+        <v>224</v>
+      </c>
       <c r="G68" t="s">
         <v>40</v>
       </c>
       <c r="H68" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" t="s">
+        <v>227</v>
+      </c>
       <c r="G69" t="s">
         <v>40</v>
       </c>
       <c r="H69" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
       </c>
       <c r="H70" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J70" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" t="s">
+        <v>234</v>
+      </c>
       <c r="G71" t="s">
         <v>40</v>
       </c>
       <c r="H71" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" t="s">
+        <v>237</v>
+      </c>
       <c r="G72" t="s">
         <v>40</v>
       </c>
       <c r="H72" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J72" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" t="s">
-        <v>27</v>
+        <v>214</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
-      </c>
-      <c r="J73" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" t="s">
-        <v>31</v>
+        <v>214</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
-      </c>
-      <c r="J74" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" t="s">
-        <v>34</v>
+        <v>214</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="G75" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H75" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
-      </c>
-      <c r="J75" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" t="s">
-        <v>177</v>
-      </c>
-      <c r="G76" t="s">
-        <v>52</v>
-      </c>
-      <c r="H76" t="s">
-        <v>178</v>
-      </c>
-      <c r="I76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="10"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" t="s">
         <v>179</v>
       </c>
-      <c r="D77" t="s">
-        <v>180</v>
-      </c>
-      <c r="G77" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" t="s">
-        <v>181</v>
-      </c>
-      <c r="I77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" t="s">
         <v>182</v>
       </c>
-      <c r="D78" t="s">
-        <v>183</v>
-      </c>
-      <c r="G78" t="s">
-        <v>52</v>
-      </c>
-      <c r="H78" t="s">
-        <v>184</v>
-      </c>
-      <c r="I78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D88" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" t="s">
         <v>185</v>
       </c>
-      <c r="D79" t="s">
-        <v>186</v>
-      </c>
-      <c r="G79" t="s">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s">
-        <v>41</v>
-      </c>
-      <c r="I79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="D89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G80" t="s">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s">
-        <v>43</v>
-      </c>
-      <c r="I80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="D90" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G81" t="s">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s">
-        <v>45</v>
-      </c>
-      <c r="I81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D82" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" t="s">
         <v>191</v>
       </c>
-      <c r="G82" t="s">
-        <v>52</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="D91" t="s">
         <v>192</v>
       </c>
-      <c r="I82" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D83" t="s">
-        <v>195</v>
-      </c>
-      <c r="G83" t="s">
-        <v>52</v>
-      </c>
-      <c r="H83" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" t="s">
         <v>196</v>
       </c>
-      <c r="I83" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="D92" t="s">
         <v>197</v>
       </c>
-      <c r="D84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G84" t="s">
-        <v>52</v>
-      </c>
-      <c r="H84" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I84" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-    </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="14" t="s">
+      <c r="D93" t="s">
         <v>200</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" s="14" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="D94" t="s">
         <v>203</v>
       </c>
-      <c r="I86" t="s">
-        <v>204</v>
-      </c>
-      <c r="J86"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" t="s">
+    </row>
+    <row r="95" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" t="s">
-        <v>26</v>
-      </c>
-      <c r="I87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" t="s">
-        <v>206</v>
-      </c>
-      <c r="D88" t="s">
-        <v>207</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
-      <c r="H88" t="s">
-        <v>208</v>
-      </c>
-      <c r="I88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" t="s">
-        <v>209</v>
-      </c>
-      <c r="D89" t="s">
-        <v>210</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" t="s">
-        <v>211</v>
-      </c>
-      <c r="I89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90" t="s">
-        <v>212</v>
-      </c>
-      <c r="D90" t="s">
-        <v>202</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s">
-        <v>203</v>
-      </c>
-      <c r="I90" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" t="s">
-        <v>214</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s">
-        <v>215</v>
-      </c>
-      <c r="I91" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" t="s">
-        <v>217</v>
-      </c>
-      <c r="D92" t="s">
-        <v>218</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" t="s">
-        <v>219</v>
-      </c>
-      <c r="I92" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>200</v>
-      </c>
-      <c r="C93" t="s">
-        <v>220</v>
-      </c>
-      <c r="D93" t="s">
-        <v>220</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H93" t="s">
-        <v>221</v>
-      </c>
-      <c r="I93" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" t="s">
-        <v>200</v>
-      </c>
-      <c r="C94" t="s">
-        <v>222</v>
-      </c>
-      <c r="D94" t="s">
-        <v>223</v>
-      </c>
-      <c r="G94" t="s">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s">
-        <v>41</v>
-      </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G95" t="s">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s">
-        <v>43</v>
-      </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G96" t="s">
-        <v>40</v>
-      </c>
-      <c r="H96" t="s">
-        <v>45</v>
-      </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D97" t="s">
-        <v>228</v>
-      </c>
-      <c r="G97" t="s">
-        <v>52</v>
-      </c>
-      <c r="H97" t="s">
-        <v>229</v>
-      </c>
-      <c r="I97" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D96" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>230</v>
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
+        <v>277</v>
       </c>
       <c r="D98" t="s">
-        <v>231</v>
-      </c>
-      <c r="G98" t="s">
-        <v>52</v>
-      </c>
-      <c r="H98" t="s">
-        <v>232</v>
-      </c>
-      <c r="I98" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="D99" t="s">
-        <v>234</v>
-      </c>
-      <c r="G99" t="s">
-        <v>52</v>
-      </c>
-      <c r="H99" t="s">
-        <v>235</v>
-      </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="D100" t="s">
-        <v>237</v>
-      </c>
-      <c r="G100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H100" t="s">
-        <v>238</v>
-      </c>
-      <c r="I100" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="D102" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>239</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>242</v>
+        <v>276</v>
+      </c>
+      <c r="C103" t="s">
+        <v>287</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>244</v>
+        <v>276</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="D104" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>246</v>
+        <v>276</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="D105" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>248</v>
+        <v>276</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="D106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>250</v>
+        <v>276</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="D107" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>254</v>
+        <v>276</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="D109" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="D110" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>239</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>258</v>
+        <v>276</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="D111" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="10"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D112" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>261</v>
+        <v>276</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="D113" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4180,30 +4246,41 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="D114" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="10"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D115" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>313</v>
       </c>
       <c r="D116" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,13 +4288,13 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="D117" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4225,13 +4302,13 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C118" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="D118" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,13 +4316,13 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+      <c r="C119" t="s">
+        <v>319</v>
       </c>
       <c r="D119" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4253,13 +4330,13 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="C120" t="s">
+        <v>321</v>
       </c>
       <c r="D120" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4267,13 +4344,13 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>265</v>
-      </c>
-      <c r="C121" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="C121" t="s">
+        <v>323</v>
+      </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4281,13 +4358,13 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="D122" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,13 +4372,13 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C123" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="D123" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,41 +4386,28 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C124" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="D124" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" t="s">
-        <v>265</v>
-      </c>
-      <c r="C125" t="s">
-        <v>212</v>
-      </c>
-      <c r="D125" t="s">
-        <v>281</v>
-      </c>
-    </row>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="C126" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="D126" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,13 +4415,13 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D127" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4365,13 +4429,13 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="C128" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="D128" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4379,13 +4443,13 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>265</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>227</v>
+        <v>330</v>
+      </c>
+      <c r="C129" t="s">
+        <v>337</v>
       </c>
       <c r="D129" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4393,13 +4457,13 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>230</v>
+        <v>330</v>
+      </c>
+      <c r="C130" t="s">
+        <v>339</v>
       </c>
       <c r="D130" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4407,13 +4471,13 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>265</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>233</v>
+        <v>330</v>
+      </c>
+      <c r="C131" t="s">
+        <v>341</v>
       </c>
       <c r="D131" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,30 +4485,28 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>283</v>
+        <v>330</v>
+      </c>
+      <c r="C132" t="s">
+        <v>343</v>
       </c>
       <c r="D132" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C134" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="D134" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,13 +4514,13 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>288</v>
+        <v>345</v>
+      </c>
+      <c r="C135" t="s">
+        <v>348</v>
       </c>
       <c r="D135" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,13 +4528,13 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>285</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>290</v>
+        <v>345</v>
+      </c>
+      <c r="C136" t="s">
+        <v>350</v>
       </c>
       <c r="D136" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,13 +4542,13 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>285</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>292</v>
+        <v>345</v>
+      </c>
+      <c r="C137" t="s">
+        <v>352</v>
       </c>
       <c r="D137" t="s">
-        <v>293</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,13 +4556,13 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>294</v>
+        <v>345</v>
+      </c>
+      <c r="C138" t="s">
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,13 +4570,13 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C139" t="s">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="D139" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4522,13 +4584,13 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>285</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>298</v>
+        <v>345</v>
+      </c>
+      <c r="C140" t="s">
+        <v>358</v>
       </c>
       <c r="D140" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,13 +4598,13 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>300</v>
+        <v>345</v>
+      </c>
+      <c r="C141" t="s">
+        <v>360</v>
       </c>
       <c r="D141" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,13 +4612,13 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>302</v>
+        <v>345</v>
+      </c>
+      <c r="C142" t="s">
+        <v>362</v>
       </c>
       <c r="D142" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,13 +4626,13 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>304</v>
+        <v>345</v>
+      </c>
+      <c r="C143" t="s">
+        <v>364</v>
       </c>
       <c r="D143" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,13 +4640,13 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>306</v>
+        <v>345</v>
+      </c>
+      <c r="C144" t="s">
+        <v>366</v>
       </c>
       <c r="D144" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,13 +4654,13 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>308</v>
+        <v>345</v>
+      </c>
+      <c r="C145" t="s">
+        <v>368</v>
       </c>
       <c r="D145" t="s">
-        <v>309</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,13 +4668,13 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="D146" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,13 +4682,13 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>285</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>312</v>
+        <v>345</v>
+      </c>
+      <c r="C147" t="s">
+        <v>372</v>
       </c>
       <c r="D147" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,13 +4696,13 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>314</v>
+        <v>345</v>
+      </c>
+      <c r="C148" t="s">
+        <v>374</v>
       </c>
       <c r="D148" t="s">
-        <v>315</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4648,13 +4710,13 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>285</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>316</v>
+        <v>345</v>
+      </c>
+      <c r="C149" t="s">
+        <v>376</v>
       </c>
       <c r="D149" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,13 +4724,13 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>318</v>
+        <v>345</v>
+      </c>
+      <c r="C150" t="s">
+        <v>378</v>
       </c>
       <c r="D150" t="s">
-        <v>319</v>
+        <v>379</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4676,13 +4738,13 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>285</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>320</v>
+        <v>345</v>
+      </c>
+      <c r="C151" t="s">
+        <v>380</v>
       </c>
       <c r="D151" t="s">
-        <v>321</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,13 +4752,13 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C152" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="D152" t="s">
-        <v>323</v>
+        <v>383</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,13 +4766,13 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C153" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4718,13 +4780,13 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C154" t="s">
-        <v>326</v>
+        <v>386</v>
       </c>
       <c r="D154" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,13 +4794,13 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C155" t="s">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="D155" t="s">
-        <v>329</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,13 +4808,13 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C156" t="s">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="D156" t="s">
-        <v>331</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4760,13 +4822,13 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C157" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
       <c r="D157" t="s">
-        <v>333</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4774,13 +4836,13 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C158" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="D158" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,13 +4850,13 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C159" t="s">
-        <v>336</v>
+        <v>396</v>
       </c>
       <c r="D159" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,670 +4864,192 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C160" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="D160" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
+        <v>400</v>
+      </c>
+      <c r="D161" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C162" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="D162" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C163" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="D163" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" t="s">
-        <v>339</v>
-      </c>
-      <c r="C164" t="s">
-        <v>344</v>
-      </c>
-      <c r="D164" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="C165" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="D165" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="C166" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="D166" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="E166" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="C167" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="D167" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" t="s">
-        <v>339</v>
-      </c>
-      <c r="C168" t="s">
-        <v>352</v>
-      </c>
-      <c r="D168" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>8</v>
-      </c>
-      <c r="B170" t="s">
-        <v>354</v>
-      </c>
-      <c r="C170" t="s">
-        <v>355</v>
-      </c>
-      <c r="D170" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>8</v>
-      </c>
-      <c r="B171" t="s">
-        <v>354</v>
-      </c>
-      <c r="C171" t="s">
-        <v>357</v>
-      </c>
-      <c r="D171" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" t="s">
-        <v>354</v>
-      </c>
-      <c r="C172" t="s">
-        <v>359</v>
-      </c>
-      <c r="D172" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>8</v>
-      </c>
-      <c r="B173" t="s">
-        <v>354</v>
-      </c>
-      <c r="C173" t="s">
-        <v>361</v>
-      </c>
-      <c r="D173" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" t="s">
-        <v>354</v>
-      </c>
-      <c r="C174" t="s">
-        <v>363</v>
-      </c>
-      <c r="D174" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" t="s">
-        <v>354</v>
-      </c>
-      <c r="C175" t="s">
-        <v>365</v>
-      </c>
-      <c r="D175" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" t="s">
-        <v>354</v>
-      </c>
-      <c r="C176" t="s">
-        <v>367</v>
-      </c>
-      <c r="D176" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" t="s">
-        <v>354</v>
-      </c>
-      <c r="C177" t="s">
-        <v>369</v>
-      </c>
-      <c r="D177" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" t="s">
-        <v>354</v>
-      </c>
-      <c r="C178" t="s">
-        <v>371</v>
-      </c>
-      <c r="D178" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" t="s">
-        <v>354</v>
-      </c>
-      <c r="C179" t="s">
-        <v>373</v>
-      </c>
-      <c r="D179" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" t="s">
-        <v>354</v>
-      </c>
-      <c r="C180" t="s">
-        <v>375</v>
-      </c>
-      <c r="D180" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" t="s">
-        <v>354</v>
-      </c>
-      <c r="C181" t="s">
-        <v>377</v>
-      </c>
-      <c r="D181" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" t="s">
-        <v>354</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D182" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" t="s">
-        <v>354</v>
-      </c>
-      <c r="C183" t="s">
-        <v>381</v>
-      </c>
-      <c r="D183" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" t="s">
-        <v>354</v>
-      </c>
-      <c r="C184" t="s">
-        <v>383</v>
-      </c>
-      <c r="D184" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" t="s">
-        <v>354</v>
-      </c>
-      <c r="C185" t="s">
-        <v>385</v>
-      </c>
-      <c r="D185" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" t="s">
-        <v>354</v>
-      </c>
-      <c r="C186" t="s">
-        <v>387</v>
-      </c>
-      <c r="D186" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187" t="s">
-        <v>354</v>
-      </c>
-      <c r="C187" t="s">
-        <v>389</v>
-      </c>
-      <c r="D187" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>8</v>
-      </c>
-      <c r="B188" t="s">
-        <v>354</v>
-      </c>
-      <c r="C188" t="s">
-        <v>391</v>
-      </c>
-      <c r="D188" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>8</v>
-      </c>
-      <c r="B189" t="s">
-        <v>354</v>
-      </c>
-      <c r="C189" t="s">
-        <v>393</v>
-      </c>
-      <c r="D189" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>8</v>
-      </c>
-      <c r="B190" t="s">
-        <v>354</v>
-      </c>
-      <c r="C190" t="s">
-        <v>395</v>
-      </c>
-      <c r="D190" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>8</v>
-      </c>
-      <c r="B191" t="s">
-        <v>354</v>
-      </c>
-      <c r="C191" t="s">
-        <v>397</v>
-      </c>
-      <c r="D191" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>8</v>
-      </c>
-      <c r="B192" t="s">
-        <v>354</v>
-      </c>
-      <c r="C192" t="s">
-        <v>399</v>
-      </c>
-      <c r="D192" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>8</v>
-      </c>
-      <c r="B193" t="s">
-        <v>354</v>
-      </c>
-      <c r="C193" t="s">
-        <v>401</v>
-      </c>
-      <c r="D193" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>8</v>
-      </c>
-      <c r="B194" t="s">
-        <v>354</v>
-      </c>
-      <c r="C194" t="s">
-        <v>403</v>
-      </c>
-      <c r="D194" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>8</v>
-      </c>
-      <c r="B195" t="s">
-        <v>354</v>
-      </c>
-      <c r="C195" t="s">
-        <v>405</v>
-      </c>
-      <c r="D195" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>8</v>
-      </c>
-      <c r="B196" t="s">
-        <v>354</v>
-      </c>
-      <c r="C196" t="s">
-        <v>407</v>
-      </c>
-      <c r="D196" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>8</v>
-      </c>
-      <c r="B197" t="s">
-        <v>354</v>
-      </c>
-      <c r="C197" t="s">
-        <v>409</v>
-      </c>
-      <c r="D197" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>8</v>
-      </c>
-      <c r="B198" t="s">
-        <v>354</v>
-      </c>
-      <c r="C198" t="s">
         <v>411</v>
       </c>
-      <c r="D198" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" t="s">
-        <v>354</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="E167" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>25</v>
+      </c>
+      <c r="H189" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>25</v>
+      </c>
+      <c r="H190" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>25</v>
+      </c>
+      <c r="H191" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H192" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>25</v>
+      </c>
+      <c r="H193" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>25</v>
+      </c>
+      <c r="H194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>25</v>
+      </c>
+      <c r="H195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
         <v>412</v>
       </c>
-      <c r="D199" t="s">
+      <c r="H196" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>8</v>
-      </c>
-      <c r="B201" t="s">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>412</v>
+      </c>
+      <c r="H197" t="s">
         <v>414</v>
       </c>
-      <c r="C201" t="s">
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>412</v>
+      </c>
+      <c r="H198" t="s">
         <v>415</v>
-      </c>
-      <c r="D201" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>8</v>
-      </c>
-      <c r="B202" t="s">
-        <v>414</v>
-      </c>
-      <c r="C202" t="s">
-        <v>417</v>
-      </c>
-      <c r="D202" t="s">
-        <v>418</v>
-      </c>
-      <c r="E202" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>8</v>
-      </c>
-      <c r="B203" t="s">
-        <v>414</v>
-      </c>
-      <c r="C203" t="s">
-        <v>419</v>
-      </c>
-      <c r="D203" t="s">
-        <v>420</v>
-      </c>
-      <c r="E203" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G224" t="s">
-        <v>25</v>
-      </c>
-      <c r="H224" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G225" t="s">
-        <v>25</v>
-      </c>
-      <c r="H225" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G226" t="s">
-        <v>25</v>
-      </c>
-      <c r="H226" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G227" t="s">
-        <v>25</v>
-      </c>
-      <c r="H227" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G228" t="s">
-        <v>25</v>
-      </c>
-      <c r="H228" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G229" t="s">
-        <v>25</v>
-      </c>
-      <c r="H229" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G230" t="s">
-        <v>25</v>
-      </c>
-      <c r="H230" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G231" t="s">
-        <v>25</v>
-      </c>
-      <c r="H231" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G232" t="s">
-        <v>40</v>
-      </c>
-      <c r="H232" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G233" t="s">
-        <v>40</v>
-      </c>
-      <c r="H233" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G234" t="s">
-        <v>40</v>
-      </c>
-      <c r="H234" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5511,99 +5095,99 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" t="s">
         <v>422</v>
-      </c>
-      <c r="B3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" t="s">
         <v>423</v>
       </c>
-      <c r="C4" t="s">
-        <v>428</v>
-      </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -5614,13 +5198,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -5628,314 +5212,314 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D10" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" t="s">
         <v>439</v>
       </c>
-      <c r="C14" t="s">
-        <v>444</v>
-      </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C15" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C18" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D18" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C19" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B21" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C21" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D21" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B22" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C22" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B23" t="s">
+        <v>451</v>
+      </c>
+      <c r="C23" t="s">
         <v>456</v>
       </c>
-      <c r="C23" t="s">
-        <v>461</v>
-      </c>
       <c r="D23" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D24" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C28" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D28" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B29" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D29" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30" t="s">
         <v>467</v>
       </c>
-      <c r="C30" t="s">
-        <v>472</v>
-      </c>
       <c r="D30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B31" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C31" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C32" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D32" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B33" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C33" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C34" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D34" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C35" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D35" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -5980,35 +5564,35 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -6019,7 +5603,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -6033,7 +5617,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -6047,13 +5631,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -6061,7 +5645,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -6075,7 +5659,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -6089,7 +5673,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -6103,7 +5687,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -6117,7 +5701,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -6137,119 +5721,119 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -6263,100 +5847,100 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6367,212 +5951,212 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>507</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D42" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6583,108 +6167,108 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -6695,10 +6279,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
@@ -6709,10 +6293,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
@@ -6723,13 +6307,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
@@ -6737,13 +6321,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
         <v>32</v>
@@ -6751,13 +6335,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -6765,58 +6349,58 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6827,184 +6411,184 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" t="s">
         <v>200</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D74" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="D77" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -7015,142 +6599,142 @@
     </row>
     <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D80" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D86" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -7161,30 +6745,30 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B91" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7195,240 +6779,240 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B93" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C94" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D94" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C95" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D95" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B96" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B97" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B98" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B99" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D100" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B102" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D102" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B103" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B104" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D104" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B105" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D105" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D106" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D108" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D109" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -7439,394 +7023,394 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B111" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C111" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D111" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D112" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B113" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D113" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B114" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D114" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="D115" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B116" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C116" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D116" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D117" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B118" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D118" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B119" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D119" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D120" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B121" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D122" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D123" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B124" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C124" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D124" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D125" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B126" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D126" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D127" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B128" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D128" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B129" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D129" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B130" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C130" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D130" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C131" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D131" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B132" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D132" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B133" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C133" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D133" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D134" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C135" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D135" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B136" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C136" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D136" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B137" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D137" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C138" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D138" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -7837,100 +7421,100 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B140" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C140" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D140" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B141" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C141" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D141" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B142" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C142" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D142" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B143" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C143" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D143" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" t="s">
         <v>339</v>
       </c>
-      <c r="C144" t="s">
-        <v>348</v>
-      </c>
       <c r="D144" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B145" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C145" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D145" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B146" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C146" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D146" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -7941,436 +7525,436 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B148" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D148" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B149" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C149" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D149" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B150" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C150" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D150" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B151" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C151" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D151" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B152" t="s">
+        <v>345</v>
+      </c>
+      <c r="C152" t="s">
         <v>354</v>
       </c>
-      <c r="C152" t="s">
-        <v>363</v>
-      </c>
       <c r="D152" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B153" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C153" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D153" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B154" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C154" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D154" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B155" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C155" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D155" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B156" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C156" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D156" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B157" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C157" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D157" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B158" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C158" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D158" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B159" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C159" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D159" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B160" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C160" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D160" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B161" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D161" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B162" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C162" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D162" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B163" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C163" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D163" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B164" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C164" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D164" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B165" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C165" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D165" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B166" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C166" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D166" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B167" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C167" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D167" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B168" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C168" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D168" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B169" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C169" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D169" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B170" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C170" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D170" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B171" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C171" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D171" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B172" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C172" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D172" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B173" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C173" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D173" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B174" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C174" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D174" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B175" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C175" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D175" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C176" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D176" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B177" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C177" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D177" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B178" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C178" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D178" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -8381,44 +7965,44 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B180" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C180" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D180" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B181" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C181" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D181" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B182" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C182" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D182" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -8463,99 +8047,99 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" t="s">
         <v>423</v>
       </c>
-      <c r="C4" t="s">
-        <v>428</v>
-      </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -8566,13 +8150,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -8580,314 +8164,314 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D10" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" t="s">
         <v>439</v>
       </c>
-      <c r="C14" t="s">
-        <v>444</v>
-      </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C15" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C18" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D18" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C19" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C21" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D21" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B22" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C22" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B23" t="s">
+        <v>451</v>
+      </c>
+      <c r="C23" t="s">
         <v>456</v>
       </c>
-      <c r="C23" t="s">
-        <v>461</v>
-      </c>
       <c r="D23" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D24" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C28" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D28" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B29" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D29" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30" t="s">
         <v>467</v>
       </c>
-      <c r="C30" t="s">
-        <v>472</v>
-      </c>
       <c r="D30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B31" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C31" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C32" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D32" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B33" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C33" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C34" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D34" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C35" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D35" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
